--- a/DatabaseIndividualPricingInputFormat v2.xlsx
+++ b/DatabaseIndividualPricingInputFormat v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25502"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redbrickza.sharepoint.com/sites/Empores/Shared Documents/NovaPower/Web Pricing Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="8_{1A61F79C-627C-4E16-B2D7-902F4270E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1D6BF3E-10E6-4F7E-BDD1-B472992EA123}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{1A61F79C-627C-4E16-B2D7-902F4270E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D98D6001-C139-4B50-B629-AF09A1BCD908}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A38C0819-823B-4194-AA2B-5033FF66305C}"/>
   </bookViews>
@@ -33,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="185">
   <si>
     <t>ItemName</t>
   </si>
@@ -63,6 +64,9 @@
     <t>Extras</t>
   </si>
   <si>
+    <t>Img Url</t>
+  </si>
+  <si>
     <t>Battery</t>
   </si>
   <si>
@@ -168,12 +172,18 @@
     <t>Size-kVA:1.2, EngineSize-Stroke: 4</t>
   </si>
   <si>
+    <t>https://www.makro.co.za/sys-master/images/h06/h98/9800090222622/silo-MIN_237823_EAA_large</t>
+  </si>
+  <si>
     <t>Key-Start</t>
   </si>
   <si>
     <t>Size-kVA:3.5, EngineSize-Stroke: 4</t>
   </si>
   <si>
+    <t>https://www.builders.co.za/_ui/responsive/theme-yellow/images/products/product-image-transparent.png</t>
+  </si>
+  <si>
     <t>Cable</t>
   </si>
   <si>
@@ -186,9 +196,15 @@
     <t>Size-mm2:35, Length-m:1</t>
   </si>
   <si>
+    <t>https://www.makro.co.za/sys-master/images/hc0/h4f/9800097300510/silo-MIN_159320_EAA_large</t>
+  </si>
+  <si>
     <t>Size-mm2:50, Length-m:1</t>
   </si>
   <si>
+    <t>https://www.makro.co.za/sys-master/images/hba/h86/9800090746910/silo-MIN_285367_EAA_large</t>
+  </si>
+  <si>
     <t>Rack</t>
   </si>
   <si>
@@ -207,6 +223,9 @@
     <t>Length-m:4.2</t>
   </si>
   <si>
+    <t>https://3pmedia.leroymerlin.co.za/SOURCE/a424840859ea40f38d972c635c8539ec</t>
+  </si>
+  <si>
     <t>Size-kVA:5.5, EngineSize-Stroke: 4</t>
   </si>
   <si>
@@ -237,6 +256,9 @@
     <t>Size-kVA:7, EngineSize-Stroke: 4</t>
   </si>
   <si>
+    <t>https://3pmedia.leroymerlin.co.za/SOURCE/10f337c37a7845719d921542d1415339</t>
+  </si>
+  <si>
     <t>Size-kVA:4.5, EngineSize-Stroke: 4</t>
   </si>
   <si>
@@ -261,6 +283,9 @@
     <t>SizeGroup:3,TypeGroup:1, Brand:1, PackageGroup:1</t>
   </si>
   <si>
+    <t>https://i.ibb.co/BHDB8md/Mecer-1-2.png</t>
+  </si>
+  <si>
     <t>Stand-alone</t>
   </si>
   <si>
@@ -270,18 +295,30 @@
     <t>Size-kVA:5, Voltage-V:48, Power-kW:4</t>
   </si>
   <si>
+    <t>https://i.ibb.co/842wzpn/Mecer-5.png</t>
+  </si>
+  <si>
     <t>RCT-AXPERT</t>
   </si>
   <si>
     <t>Size-kVA:3, Voltage-V:48, Power-kW:3, MPPTVoltage-V:430</t>
   </si>
   <si>
+    <t>https://i.ibb.co/rvLf8JH/RCT-Axpert-3kv-A.png</t>
+  </si>
+  <si>
     <t>Size-kVA:5, Voltage-V:48, Power-kW:5, MPPTVoltage-V:115</t>
   </si>
   <si>
+    <t>https://i.ibb.co/fMKMdQL/RCT-Axpert-5kv-A.jpg</t>
+  </si>
+  <si>
     <t>Size-kVA:8, Voltage-V:48, Power-kW:8, MPPTVoltage-V:66</t>
   </si>
   <si>
+    <t>https://i.ibb.co/SV8mNPB/RCT-Axpert-8-Kkv-A.png</t>
+  </si>
+  <si>
     <t>TheCoolGuys</t>
   </si>
   <si>
@@ -324,6 +361,9 @@
     <t>Size-kVA:1, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:1, BatVoltage-V:12, PWMCurrent-A:50</t>
   </si>
   <si>
+    <t>https://i.ibb.co/N2BqyKx/Rentech-5-6.png</t>
+  </si>
+  <si>
     <t>Rentech-Jagular</t>
   </si>
   <si>
@@ -556,27 +596,6 @@
   </si>
   <si>
     <t>14x375w</t>
-  </si>
-  <si>
-    <t>Img Url</t>
-  </si>
-  <si>
-    <t>https://www.makro.co.za/sys-master/images/h06/h98/9800090222622/silo-MIN_237823_EAA_large</t>
-  </si>
-  <si>
-    <t>https://www.builders.co.za/_ui/responsive/theme-yellow/images/products/product-image-transparent.png</t>
-  </si>
-  <si>
-    <t>https://www.makro.co.za/sys-master/images/hc0/h4f/9800097300510/silo-MIN_159320_EAA_large</t>
-  </si>
-  <si>
-    <t>https://www.makro.co.za/sys-master/images/hba/h86/9800090746910/silo-MIN_285367_EAA_large</t>
-  </si>
-  <si>
-    <t>https://3pmedia.leroymerlin.co.za/SOURCE/a424840859ea40f38d972c635c8539ec</t>
-  </si>
-  <si>
-    <t>https://3pmedia.leroymerlin.co.za/SOURCE/10f337c37a7845719d921542d1415339</t>
   </si>
 </sst>
 </file>
@@ -588,7 +607,7 @@
     <numFmt numFmtId="165" formatCode="_-[$R-1C09]* #,##0_-;\-[$R-1C09]* #,##0_-;_-[$R-1C09]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$R-1C09]* #,##0.00_-;\-[$R-1C09]* #,##0.00_-;_-[$R-1C09]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,6 +640,27 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -699,7 +739,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -717,6 +757,11 @@
     <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1039,25 +1084,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="G44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45:H52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.44140625" customWidth="1"/>
-    <col min="8" max="8" width="97.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.42578125" customWidth="1"/>
+    <col min="8" max="8" width="97.42578125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1079,2005 +1125,2094 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="14">
         <f>RBCPriceGenerator!B5</f>
         <v>11253.9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H2"/>
+    </row>
+    <row r="3" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="14">
         <f>RBCPriceGenerator!B6</f>
         <v>8044.2499999999991</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H3"/>
+    </row>
+    <row r="4" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="14">
         <f>RBCPriceGenerator!B7</f>
         <v>13549.3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="14">
         <f>RBCPriceGenerator!B8</f>
         <v>20895.5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H5"/>
+    </row>
+    <row r="6" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="14">
         <f>RBCPriceGenerator!B9</f>
         <v>21755.699999999997</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H6"/>
+    </row>
+    <row r="7" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14">
         <f>RBCPriceGenerator!B10</f>
         <v>26444.249999999996</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H7"/>
+    </row>
+    <row r="8" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="14">
         <f>RBCPriceGenerator!B11</f>
         <v>3859.3999999999996</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H8"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="14">
         <f>RBCPriceGenerator!B12</f>
         <v>2999.2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H9"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4">
         <f>RBCPriceGenerator!B37</f>
         <v>19836.349999999999</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H10"/>
+    </row>
+    <row r="11" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4">
         <f>RBCPriceGenerator!B38</f>
         <v>30151.85</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H11"/>
+    </row>
+    <row r="12" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4">
         <f>RBCPriceGenerator!B39</f>
         <v>3460.35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H12"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4">
         <f>RBCPriceGenerator!B40</f>
         <v>6346.8499999999995</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H13"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A14" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="9">
         <f>RBCPriceGenerator!B52</f>
         <v>8038.4999999999991</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H14"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="9">
         <f>RBCPriceGenerator!B53</f>
         <v>18975</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H15"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A16" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="9">
         <f>RBCPriceGenerator!B54</f>
         <v>26444.249999999996</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H16"/>
+    </row>
+    <row r="17" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="14">
         <f>RBCPriceGenerator!B23</f>
         <v>5175</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="14">
         <f>RBCPriceGenerator!B24</f>
         <v>8049.9999999999991</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F19" s="14">
         <f>RBCPriceGenerator!B19</f>
         <v>169.04999999999998</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F20" s="14">
         <f>RBCPriceGenerator!B20</f>
         <v>254.14999999999998</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="14">
         <f>RBCPriceGenerator!B21</f>
         <v>362.25</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H21" t="s">
         <v>53</v>
       </c>
-      <c r="H21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F22" s="14">
         <f>RBCPriceGenerator!B22</f>
         <v>675.05</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F23" s="14">
         <f>RBCPriceGenerator!B25</f>
         <v>13799.999999999998</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F24" s="14">
         <f>RBCPriceGenerator!B26</f>
         <v>14949.999999999998</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F25" s="14">
         <f>RBCPriceGenerator!B27</f>
         <v>24149.999999999996</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F26" s="14">
         <f>RBCPriceGenerator!B28</f>
         <v>17250</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F27" s="14">
         <f>RBCPriceGenerator!B29</f>
         <v>27706.949999999997</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F28" s="14">
         <f>RBCPriceGenerator!B30</f>
         <v>25299.999999999996</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F29" s="14">
         <f>RBCPriceGenerator!B31</f>
         <v>32996.949999999997</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F30" s="14">
         <f>RBCPriceGenerator!B32</f>
         <v>34500</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F31" s="14">
         <f>RBCPriceGenerator!B33</f>
         <v>41400</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F32" s="14">
         <f>RBCPriceGenerator!B2</f>
         <v>4357.3499999999995</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="H32" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="15">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F33" s="14">
         <f>RBCPriceGenerator!B3</f>
         <v>6899.9999999999991</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F34" s="14">
         <f>RBCPriceGenerator!B4</f>
         <v>12822.499999999998</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+      <c r="H34" s="18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4">
         <f>RBCPriceGenerator!B34</f>
         <v>10471.9</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H35" s="18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15">
       <c r="A36" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F36" s="4">
         <f>RBCPriceGenerator!B35</f>
         <v>15234.05</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H36" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F37" s="4">
         <f>RBCPriceGenerator!B36</f>
         <v>41260.85</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H37" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F38" s="7">
         <f>RBCPriceGenerator!B41</f>
         <v>8625</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15">
       <c r="A39" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F39" s="7">
         <f>RBCPriceGenerator!B42</f>
         <v>16099.999999999998</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15">
       <c r="A40" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F40" s="7">
         <f>RBCPriceGenerator!B43</f>
         <v>19544.25</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15">
       <c r="A41" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F41" s="7">
         <f>RBCPriceGenerator!B44</f>
         <v>26449.999999999996</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15">
       <c r="A42" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F42" s="7">
         <f>RBCPriceGenerator!B45</f>
         <v>27542.499999999996</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15">
       <c r="A43" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F43" s="7">
         <f>RBCPriceGenerator!B46</f>
         <v>34477</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15">
       <c r="A44" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F44" s="9">
         <f>RBCPriceGenerator!B47</f>
         <v>4038.7999999999997</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="H44" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15">
       <c r="A45" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F45" s="9">
         <f>RBCPriceGenerator!B48</f>
         <v>4401.0499999999993</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15">
       <c r="A46" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F46" s="9">
         <f>RBCPriceGenerator!B49</f>
         <v>7796.9999999999991</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H46" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15">
       <c r="A47" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F47" s="9">
         <f>RBCPriceGenerator!B50</f>
         <v>15746.949999999999</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="H47" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15">
       <c r="A48" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F48" s="9">
         <f>RBCPriceGenerator!B51</f>
         <v>17480</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+      <c r="H48" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15">
       <c r="A49" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F49" s="9">
         <f>RBCPriceGenerator!B55</f>
         <v>15864.249999999998</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15">
       <c r="A50" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F50" s="9">
         <f>RBCPriceGenerator!B56</f>
         <v>40340.85</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H50" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15">
       <c r="A51" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F51" s="9">
         <f>RBCPriceGenerator!B57</f>
         <v>48275.85</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H51" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15">
       <c r="A52" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F52" s="9">
         <f>RBCPriceGenerator!B58</f>
         <v>67286.5</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H52" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15">
       <c r="A53" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2">
         <f>RBCPriceGenerator!B59</f>
         <v>14614.199999999999</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15">
       <c r="A54" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2">
         <f>RBCPriceGenerator!B60</f>
         <v>16660.05</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15">
       <c r="A55" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2">
         <f>RBCPriceGenerator!B61</f>
         <v>27958.799999999999</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15">
       <c r="A56" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2">
         <f>RBCPriceGenerator!B62</f>
         <v>6481.4</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15">
       <c r="A57" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F57" s="2">
         <f>RBCPriceGenerator!B63</f>
         <v>8204.0999999999985</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15">
       <c r="A58" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2">
         <f>RBCPriceGenerator!B64</f>
         <v>13881.65</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A59" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F59" s="2">
         <f>RBCPriceGenerator!B65</f>
         <v>15917.15</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+      <c r="H59" s="19"/>
+    </row>
+    <row r="60" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A60" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2">
         <f>RBCPriceGenerator!B66</f>
         <v>26767.399999999998</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+      <c r="H60" s="19"/>
+    </row>
+    <row r="61" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A61" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F61" s="12">
         <f>RBCPriceGenerator!B70</f>
         <v>10804.25</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="H61" s="19"/>
+    </row>
+    <row r="62" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A62" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F62" s="12">
         <f>RBCPriceGenerator!B71</f>
         <v>11034.25</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="H62" s="19"/>
+    </row>
+    <row r="63" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A63" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F63" s="12">
         <f>RBCPriceGenerator!B72</f>
         <v>21154.25</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+      <c r="H63" s="19"/>
+    </row>
+    <row r="64" spans="1:8" s="5" customFormat="1" ht="15">
       <c r="A64" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F64" s="12">
         <f>RBCPriceGenerator!B73</f>
         <v>25288.499999999996</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+      <c r="H64" s="19"/>
+    </row>
+    <row r="65" spans="1:8" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F65" s="14">
         <f>RBCPriceGenerator!B13</f>
         <v>2587.5</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F66" s="14">
         <f>RBCPriceGenerator!B14</f>
         <v>3433.8999999999996</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F67" s="14">
         <f>RBCPriceGenerator!B15</f>
         <v>3759.35</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H67"/>
+    </row>
+    <row r="68" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F68" s="14">
         <f>RBCPriceGenerator!B16</f>
         <v>3653.5499999999997</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H68"/>
+    </row>
+    <row r="69" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F69" s="14">
         <f>RBCPriceGenerator!B17</f>
         <v>3217.7</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H69"/>
+    </row>
+    <row r="70" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F70" s="14">
         <f>RBCPriceGenerator!B18</f>
         <v>3633.9999999999995</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="H70"/>
+    </row>
+    <row r="71" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A71" s="10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F71" s="2">
         <f>RBCPriceGenerator!B67</f>
         <v>35255.549999999996</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+      <c r="H71"/>
+    </row>
+    <row r="72" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A72" s="10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F72" s="2">
         <f>RBCPriceGenerator!B68</f>
         <v>44369.299999999996</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+      <c r="H72"/>
+    </row>
+    <row r="73" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A73" s="10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F73" s="2">
         <f>RBCPriceGenerator!B69</f>
         <v>45158.2</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+      <c r="H73"/>
+    </row>
+    <row r="74" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="C74" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F74" s="12">
         <f>RBCPriceGenerator!B74</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H74"/>
+    </row>
+    <row r="75" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="F75" s="12">
         <f>RBCPriceGenerator!B75</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H75"/>
+    </row>
+    <row r="76" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="F76" s="12">
         <f>RBCPriceGenerator!B76</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H76"/>
+    </row>
+    <row r="77" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="F77" s="12">
         <f>RBCPriceGenerator!B77</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="H77"/>
+    </row>
+    <row r="81" spans="6:6" ht="15">
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="6:6" ht="15">
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="6:6" ht="15">
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="6:6" ht="15">
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="6:6" ht="15">
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="6:6" ht="15">
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="6:6" ht="15">
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="6:6" ht="15">
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="6:6" ht="15">
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="6:6" ht="15">
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="6:6" ht="15">
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="6:6" ht="15">
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="6:6" ht="15">
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="6:6" ht="15">
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="6:6" ht="15">
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="6:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="6:6" ht="15">
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="97" spans="6:13" ht="15">
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="98" spans="6:13" ht="15">
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="99" spans="6:13" ht="15">
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="100" spans="6:13" ht="15">
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="6:13" ht="15">
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="6:13" ht="15">
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="103" spans="6:13" ht="15">
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="104" spans="6:13" ht="15">
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="105" spans="6:13" ht="15">
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="106" spans="6:13" ht="15">
       <c r="F106" s="16"/>
       <c r="M106" s="16"/>
     </row>
-    <row r="107" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="107" spans="6:13" ht="15">
       <c r="F107" s="16"/>
       <c r="M107" s="16"/>
     </row>
-    <row r="108" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="108" spans="6:13" ht="15">
       <c r="F108" s="16"/>
       <c r="M108" s="16"/>
     </row>
-    <row r="109" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="109" spans="6:13" ht="15">
       <c r="F109" s="16"/>
       <c r="M109" s="16"/>
     </row>
-    <row r="110" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="110" spans="6:13" ht="15">
       <c r="F110" s="16"/>
       <c r="M110" s="16"/>
     </row>
-    <row r="111" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="111" spans="6:13" ht="15">
       <c r="F111" s="16"/>
       <c r="M111" s="16"/>
     </row>
-    <row r="112" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="112" spans="6:13" ht="15">
       <c r="F112" s="16"/>
       <c r="M112" s="16"/>
     </row>
-    <row r="113" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="113" spans="6:13" ht="15">
       <c r="F113" s="16"/>
       <c r="M113" s="16"/>
     </row>
-    <row r="114" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="114" spans="6:13" ht="15">
       <c r="M114" s="16"/>
     </row>
-    <row r="115" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="115" spans="6:13" ht="15">
       <c r="M115" s="16"/>
     </row>
-    <row r="116" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="116" spans="6:13" ht="15">
       <c r="M116" s="16"/>
     </row>
-    <row r="117" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="117" spans="6:13" ht="15">
       <c r="F117" s="16"/>
       <c r="M117" s="16"/>
     </row>
-    <row r="118" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="118" spans="6:13" ht="15">
       <c r="F118" s="16"/>
       <c r="M118" s="16"/>
     </row>
-    <row r="119" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="119" spans="6:13" ht="15">
       <c r="F119" s="16"/>
       <c r="M119" s="16"/>
     </row>
-    <row r="120" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="120" spans="6:13" ht="15">
       <c r="F120" s="16"/>
       <c r="M120" s="16"/>
     </row>
-    <row r="121" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="121" spans="6:13" ht="15">
       <c r="M121" s="16"/>
     </row>
-    <row r="122" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="122" spans="6:13" ht="15">
       <c r="M122" s="16"/>
     </row>
-    <row r="123" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="123" spans="6:13" ht="15">
       <c r="M123" s="16"/>
     </row>
-    <row r="124" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="124" spans="6:13" ht="15">
       <c r="M124" s="16"/>
     </row>
-    <row r="125" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="125" spans="6:13" ht="15">
       <c r="M125" s="16"/>
     </row>
-    <row r="126" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="126" spans="6:13" ht="15">
       <c r="M126" s="16"/>
     </row>
-    <row r="127" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="127" spans="6:13" ht="15">
       <c r="M127" s="16"/>
     </row>
-    <row r="128" spans="6:13" x14ac:dyDescent="0.3">
+    <row r="128" spans="6:13" ht="15">
       <c r="M128" s="16"/>
     </row>
-    <row r="129" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="129" spans="13:13" ht="15">
       <c r="M129" s="16"/>
     </row>
-    <row r="130" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="130" spans="13:13" ht="15">
       <c r="M130" s="16"/>
     </row>
-    <row r="131" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="131" spans="13:13" ht="15">
       <c r="M131" s="16"/>
     </row>
-    <row r="132" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="132" spans="13:13" ht="15">
       <c r="M132" s="16"/>
     </row>
-    <row r="133" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="133" spans="13:13" ht="15">
       <c r="M133" s="16"/>
     </row>
-    <row r="134" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="134" spans="13:13" ht="15">
       <c r="M134" s="16"/>
     </row>
-    <row r="135" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="135" spans="13:13" ht="15">
       <c r="M135" s="16"/>
     </row>
-    <row r="136" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="136" spans="13:13" ht="15">
       <c r="M136" s="16"/>
     </row>
-    <row r="137" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="137" spans="13:13" ht="15">
       <c r="M137" s="16"/>
     </row>
-    <row r="138" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="138" spans="13:13" ht="15">
       <c r="M138" s="16"/>
     </row>
-    <row r="142" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="142" spans="13:13" ht="15">
       <c r="M142" s="16"/>
     </row>
-    <row r="143" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="143" spans="13:13" ht="15">
       <c r="M143" s="16"/>
     </row>
-    <row r="144" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="144" spans="13:13" ht="15">
       <c r="M144" s="16"/>
     </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.3">
+    <row r="145" spans="13:13" ht="15">
       <c r="M145" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G77" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}"/>
+  <autoFilter ref="A1:G77" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Inverter"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H45" r:id="rId1" xr:uid="{5AC0C6E4-66C8-46E6-80A8-12658489C699}"/>
+    <hyperlink ref="H46:H52" r:id="rId2" display="https://i.ibb.co/N2BqyKx/Rentech-5-6.png" xr:uid="{0AE3E508-AADC-4871-B8E8-A8BE2D77B813}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3091,18 +3226,18 @@
       <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3122,1762 +3257,1762 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="14">
         <f>RBCPriceGenerator!B5</f>
         <v>11253.9</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="14">
         <f>RBCPriceGenerator!B6</f>
         <v>8044.2499999999991</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="14">
         <f>RBCPriceGenerator!B7</f>
         <v>13549.3</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F5" s="14">
         <f>RBCPriceGenerator!B8</f>
         <v>20895.5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" s="14">
         <f>RBCPriceGenerator!B9</f>
         <v>21755.699999999997</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F7" s="14">
         <f>RBCPriceGenerator!B10</f>
         <v>26444.249999999996</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F8" s="14">
         <f>RBCPriceGenerator!B11</f>
         <v>3859.3999999999996</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F9" s="14">
         <f>RBCPriceGenerator!B12</f>
         <v>2999.2</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="4">
         <f>RBCPriceGenerator!B37</f>
         <v>19836.349999999999</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11" s="4">
         <f>RBCPriceGenerator!B38</f>
         <v>30151.85</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="4">
         <f>RBCPriceGenerator!B39</f>
         <v>3460.35</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4">
         <f>RBCPriceGenerator!B40</f>
         <v>6346.8499999999995</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A14" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F14" s="9">
         <f>RBCPriceGenerator!B52</f>
         <v>8038.4999999999991</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A15" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F15" s="9">
         <f>RBCPriceGenerator!B53</f>
         <v>18975</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A16" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F16" s="9">
         <f>RBCPriceGenerator!B54</f>
         <v>26444.249999999996</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" s="14">
         <f>RBCPriceGenerator!B23</f>
         <v>5175</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F18" s="14">
         <f>RBCPriceGenerator!B24</f>
         <v>8049.9999999999991</v>
       </c>
       <c r="G18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="F19" s="14">
         <f>RBCPriceGenerator!B19</f>
         <v>169.04999999999998</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F20" s="14">
         <f>RBCPriceGenerator!B20</f>
         <v>254.14999999999998</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F21" s="14">
         <f>RBCPriceGenerator!B21</f>
         <v>362.25</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F22" s="14">
         <f>RBCPriceGenerator!B22</f>
         <v>675.05</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F23" s="14">
         <f>RBCPriceGenerator!B25</f>
         <v>13799.999999999998</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F24" s="14">
         <f>RBCPriceGenerator!B26</f>
         <v>14949.999999999998</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F25" s="14">
         <f>RBCPriceGenerator!B27</f>
         <v>24149.999999999996</v>
       </c>
       <c r="G25" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F26" s="14">
         <f>RBCPriceGenerator!B28</f>
         <v>17250</v>
       </c>
       <c r="G26" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F27" s="14">
         <f>RBCPriceGenerator!B29</f>
         <v>27706.949999999997</v>
       </c>
       <c r="G27" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C28" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F28" s="14">
         <f>RBCPriceGenerator!B30</f>
         <v>25299.999999999996</v>
       </c>
       <c r="G28" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F29" s="14">
         <f>RBCPriceGenerator!B31</f>
         <v>32996.949999999997</v>
       </c>
       <c r="G29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F30" s="14">
         <f>RBCPriceGenerator!B32</f>
         <v>34500</v>
       </c>
       <c r="G30" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E31" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="F31" s="14">
         <f>RBCPriceGenerator!B33</f>
         <v>41400</v>
       </c>
       <c r="G31" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="F32" s="14">
         <f>RBCPriceGenerator!B2</f>
         <v>4357.3499999999995</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15" thickBot="1">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F33" s="14">
         <f>RBCPriceGenerator!B3</f>
         <v>6899.9999999999991</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E34" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="F34" s="14">
         <f>RBCPriceGenerator!B4</f>
         <v>12822.499999999998</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15" thickBot="1">
       <c r="A35" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F35" s="4">
         <f>RBCPriceGenerator!B34</f>
         <v>10471.9</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="15" thickBot="1">
       <c r="A36" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F36" s="4">
         <f>RBCPriceGenerator!B35</f>
         <v>15234.05</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="15" thickBot="1">
       <c r="A37" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="F37" s="4">
         <f>RBCPriceGenerator!B36</f>
         <v>41260.85</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="15" thickBot="1">
       <c r="A38" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="F38" s="7">
         <f>RBCPriceGenerator!B41</f>
         <v>8625</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15" thickBot="1">
       <c r="A39" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="F39" s="7">
         <f>RBCPriceGenerator!B42</f>
         <v>16099.999999999998</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15" thickBot="1">
       <c r="A40" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="F40" s="7">
         <f>RBCPriceGenerator!B43</f>
         <v>19544.25</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15" thickBot="1">
       <c r="A41" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F41" s="7">
         <f>RBCPriceGenerator!B44</f>
         <v>26449.999999999996</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1">
       <c r="A42" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="F42" s="7">
         <f>RBCPriceGenerator!B45</f>
         <v>27542.499999999996</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15" thickBot="1">
       <c r="A43" s="6" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F43" s="7">
         <f>RBCPriceGenerator!B46</f>
         <v>34477</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15" thickBot="1">
       <c r="A44" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F44" s="9">
         <f>RBCPriceGenerator!B47</f>
         <v>4038.7999999999997</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15" thickBot="1">
       <c r="A45" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F45" s="9">
         <f>RBCPriceGenerator!B48</f>
         <v>4401.0499999999993</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15" thickBot="1">
       <c r="A46" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F46" s="9">
         <f>RBCPriceGenerator!B49</f>
         <v>7796.9999999999991</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15" thickBot="1">
       <c r="A47" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F47" s="9">
         <f>RBCPriceGenerator!B50</f>
         <v>15746.949999999999</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15" thickBot="1">
       <c r="A48" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="F48" s="9">
         <f>RBCPriceGenerator!B51</f>
         <v>17480</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15" thickBot="1">
       <c r="A49" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F49" s="9">
         <f>RBCPriceGenerator!B55</f>
         <v>15864.249999999998</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15" thickBot="1">
       <c r="A50" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F50" s="9">
         <f>RBCPriceGenerator!B56</f>
         <v>40340.85</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15" thickBot="1">
       <c r="A51" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="F51" s="9">
         <f>RBCPriceGenerator!B57</f>
         <v>48275.85</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15" thickBot="1">
       <c r="A52" s="8" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="F52" s="9">
         <f>RBCPriceGenerator!B58</f>
         <v>67286.5</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1">
       <c r="A53" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F53" s="2">
         <f>RBCPriceGenerator!B59</f>
         <v>14614.199999999999</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15" thickBot="1">
       <c r="A54" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2">
         <f>RBCPriceGenerator!B60</f>
         <v>16660.05</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15" thickBot="1">
       <c r="A55" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="F55" s="2">
         <f>RBCPriceGenerator!B61</f>
         <v>27958.799999999999</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15" thickBot="1">
       <c r="A56" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="F56" s="2">
         <f>RBCPriceGenerator!B62</f>
         <v>6481.4</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15" thickBot="1">
       <c r="A57" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="F57" s="2">
         <f>RBCPriceGenerator!B63</f>
         <v>8204.0999999999985</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15" thickBot="1">
       <c r="A58" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="F58" s="2">
         <f>RBCPriceGenerator!B64</f>
         <v>13881.65</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A59" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="F59" s="2">
         <f>RBCPriceGenerator!B65</f>
         <v>15917.15</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A60" s="10" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2">
         <f>RBCPriceGenerator!B66</f>
         <v>26767.399999999998</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A61" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="F61" s="12">
         <f>RBCPriceGenerator!B70</f>
         <v>10804.25</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A62" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F62" s="12">
         <f>RBCPriceGenerator!B71</f>
         <v>11034.25</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A63" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F63" s="12">
         <f>RBCPriceGenerator!B72</f>
         <v>21154.25</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
       <c r="A64" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B64" s="11" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="F64" s="12">
         <f>RBCPriceGenerator!B73</f>
         <v>25288.499999999996</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C65" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="D65" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E65" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="F65" s="14">
         <f>RBCPriceGenerator!B13</f>
         <v>2587.5</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" s="5" customFormat="1" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D66" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="E66" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="F66" s="14">
         <f>RBCPriceGenerator!B14</f>
         <v>3433.8999999999996</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A67" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D67" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E67" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="F67" s="14">
         <f>RBCPriceGenerator!B15</f>
         <v>3759.35</v>
       </c>
       <c r="G67" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="D68" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="F68" s="14">
         <f>RBCPriceGenerator!B16</f>
         <v>3653.5499999999997</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A69" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="D69" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E69" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="F69" s="14">
         <f>RBCPriceGenerator!B17</f>
         <v>3217.7</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D70" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="E70" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="F70" s="14">
         <f>RBCPriceGenerator!B18</f>
         <v>3633.9999999999995</v>
       </c>
       <c r="G70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A71" s="10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="F71" s="2">
         <f>RBCPriceGenerator!B67</f>
         <v>35255.549999999996</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A72" s="10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="F72" s="2">
         <f>RBCPriceGenerator!B68</f>
         <v>44369.299999999996</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A73" s="10" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="F73" s="2">
         <f>RBCPriceGenerator!B69</f>
         <v>45158.2</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="C74" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="F74" s="12">
         <f>RBCPriceGenerator!B74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="F75" s="12">
         <f>RBCPriceGenerator!B75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="F76" s="12">
         <f>RBCPriceGenerator!B76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" hidden="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="F77" s="12">
         <f>RBCPriceGenerator!B77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7">
       <c r="A81" t="str">
         <f>A$35</f>
         <v>Inverter</v>
@@ -4903,10 +5038,10 @@
         <v>10471.9</v>
       </c>
       <c r="G81" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" t="str">
         <f>A$4</f>
         <v>Battery</v>
@@ -4932,10 +5067,10 @@
         <v>13549.3</v>
       </c>
       <c r="G82" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" t="str">
         <f>A$65</f>
         <v>Solar</v>
@@ -4961,19 +5096,19 @@
         <v>15525</v>
       </c>
       <c r="G83" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="F84" s="16">
         <f>SUBTOTAL(9,F81:F83)</f>
         <v>39546.199999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7">
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7">
       <c r="A86" t="str">
         <f t="shared" ref="A86:B86" si="4">A$35</f>
         <v>Inverter</v>
@@ -4999,10 +5134,10 @@
         <v>10471.9</v>
       </c>
       <c r="G86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" t="str">
         <f>A$4</f>
         <v>Battery</v>
@@ -5028,10 +5163,10 @@
         <v>27098.6</v>
       </c>
       <c r="G87" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" t="str">
         <f>A$65</f>
         <v>Solar</v>
@@ -5057,19 +5192,19 @@
         <v>20700</v>
       </c>
       <c r="G88" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="F89" s="16">
         <f>SUBTOTAL(9,F86:F88)</f>
         <v>58270.5</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7">
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7">
       <c r="A91" t="str">
         <f t="shared" ref="A91:D91" si="8">A$36</f>
         <v>Inverter</v>
@@ -5095,10 +5230,10 @@
         <v>15234.05</v>
       </c>
       <c r="G91" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" t="str">
         <f t="shared" ref="A92:D92" si="9">A$7</f>
         <v>Battery</v>
@@ -5124,10 +5259,10 @@
         <v>26444.249999999996</v>
       </c>
       <c r="G92" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" t="str">
         <f t="shared" ref="A93:D93" si="10">A$70</f>
         <v>Solar</v>
@@ -5153,22 +5288,22 @@
         <v>29071.999999999996</v>
       </c>
       <c r="G93" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="F94" s="16">
         <f>SUBTOTAL(9,F91:F93)</f>
         <v>70750.299999999988</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7">
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7">
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:14">
       <c r="A97" t="str">
         <f t="shared" ref="A97:D97" si="11">A$36</f>
         <v>Inverter</v>
@@ -5194,10 +5329,10 @@
         <v>15234.05</v>
       </c>
       <c r="G97" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" t="str">
         <f t="shared" ref="A98:D98" si="12">A$7</f>
         <v>Battery</v>
@@ -5223,10 +5358,10 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G98" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" t="str">
         <f t="shared" ref="A99:D99" si="13">A$70</f>
         <v>Solar</v>
@@ -5252,22 +5387,22 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G99" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="F100" s="16">
         <f>SUBTOTAL(9,F97:F99)</f>
         <v>104462.54999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14">
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14">
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:14">
       <c r="A103" t="str">
         <f t="shared" ref="A103:D103" si="14">A$37</f>
         <v>Inverter</v>
@@ -5293,10 +5428,10 @@
         <v>41260.85</v>
       </c>
       <c r="G103" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" t="str">
         <f t="shared" ref="A104:D104" si="15">A$7</f>
         <v>Battery</v>
@@ -5322,10 +5457,10 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G104" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" t="str">
         <f t="shared" ref="A105:D105" si="16">A$70</f>
         <v>Solar</v>
@@ -5351,10 +5486,10 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G105" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="F106" s="16">
         <f>SUBTOTAL(9,F103:F105)</f>
         <v>130489.34999999998</v>
@@ -5384,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="F107" s="16"/>
       <c r="H107">
         <f>H$4</f>
@@ -5414,10 +5549,10 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.3">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="F108" s="16"/>
       <c r="H108">
         <f>H$65</f>
@@ -5444,17 +5579,17 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="F109" s="16"/>
       <c r="M109" s="16">
         <f>SUBTOTAL(9,M106:M108)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:14">
       <c r="A110" t="str">
         <f t="shared" ref="A110:D110" si="21">A$37</f>
         <v>Inverter</v>
@@ -5480,11 +5615,11 @@
         <v>41260.85</v>
       </c>
       <c r="G110" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="M110" s="16"/>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:14">
       <c r="A111" t="str">
         <f t="shared" ref="A111:D111" si="22">A$7</f>
         <v>Battery</v>
@@ -5510,7 +5645,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G111" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="H111">
         <f t="shared" ref="H111:I111" si="23">H$35</f>
@@ -5537,10 +5672,10 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" t="str">
         <f t="shared" ref="A112:D112" si="25">A$70</f>
         <v>Solar</v>
@@ -5566,7 +5701,7 @@
         <v>43607.999999999993</v>
       </c>
       <c r="G112" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="H112">
         <f>H$4</f>
@@ -5593,10 +5728,10 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.3">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="F113" s="16">
         <f>SUBTOTAL(9,F110:F112)</f>
         <v>137757.34999999998</v>
@@ -5626,19 +5761,19 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="M114" s="16">
         <f>SUBTOTAL(9,M111:M113)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14">
       <c r="M115" s="16"/>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:14">
       <c r="H116">
         <f t="shared" ref="H116:K116" si="28">H$36</f>
         <v>0</v>
@@ -5664,10 +5799,10 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" t="str">
         <f t="shared" ref="A117:D117" si="29">A$37</f>
         <v>Inverter</v>
@@ -5693,7 +5828,7 @@
         <v>41260.85</v>
       </c>
       <c r="G117" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H117">
         <f t="shared" ref="H117:K117" si="30">H$7</f>
@@ -5720,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" t="str">
         <f t="shared" ref="A118:D118" si="31">A$7</f>
         <v>Battery</v>
@@ -5749,7 +5884,7 @@
         <v>79332.749999999985</v>
       </c>
       <c r="G118" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="H118">
         <f t="shared" ref="H118:K118" si="32">H$70</f>
@@ -5776,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" t="str">
         <f t="shared" ref="A119:D119" si="33">A$70</f>
         <v>Solar</v>
@@ -5805,24 +5940,24 @@
         <v>50875.999999999993</v>
       </c>
       <c r="G119" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="M119" s="16">
         <f>SUBTOTAL(9,M116:M118)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:14">
       <c r="F120" s="16">
         <f>SUBTOTAL(9,F117:F119)</f>
         <v>171469.59999999998</v>
       </c>
       <c r="M120" s="16"/>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:14">
       <c r="M121" s="16"/>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:14">
       <c r="H122">
         <f t="shared" ref="H122:K122" si="34">H$36</f>
         <v>0</v>
@@ -5848,10 +5983,10 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="H123">
         <f t="shared" ref="H123:K123" si="35">H$7</f>
         <v>0</v>
@@ -5877,10 +6012,10 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="H124">
         <f t="shared" ref="H124:K124" si="36">H$70</f>
         <v>0</v>
@@ -5906,22 +6041,22 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="M125" s="16">
         <f>SUBTOTAL(9,M122:M124)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:14">
       <c r="M126" s="16"/>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:14">
       <c r="M127" s="16"/>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:14">
       <c r="H128">
         <f t="shared" ref="H128:K128" si="37">H$37</f>
         <v>0</v>
@@ -5947,10 +6082,10 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="129" spans="8:14" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="8:14">
       <c r="H129">
         <f t="shared" ref="H129:K129" si="38">H$7</f>
         <v>0</v>
@@ -5976,10 +6111,10 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="130" spans="8:14" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="8:14">
       <c r="H130">
         <f t="shared" ref="H130:K130" si="39">H$70</f>
         <v>0</v>
@@ -6005,25 +6140,25 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131" spans="8:14" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="8:14">
       <c r="M131" s="16">
         <f>SUBTOTAL(9,M128:M130)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:14">
       <c r="M132" s="16"/>
     </row>
-    <row r="133" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:14">
       <c r="M133" s="16"/>
     </row>
-    <row r="134" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:14">
       <c r="M134" s="16"/>
     </row>
-    <row r="135" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:14">
       <c r="H135">
         <f t="shared" ref="H135:K135" si="40">H$37</f>
         <v>0</v>
@@ -6049,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="N135" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="136" spans="8:14" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="8:14">
       <c r="H136">
         <f t="shared" ref="H136:K136" si="41">H$7</f>
         <v>0</v>
@@ -6078,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="N136" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="137" spans="8:14" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="8:14">
       <c r="H137">
         <f t="shared" ref="H137:K137" si="42">H$70</f>
         <v>0</v>
@@ -6107,16 +6242,16 @@
         <v>0</v>
       </c>
       <c r="N137" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="138" spans="8:14" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="8:14">
       <c r="M138" s="16">
         <f>SUBTOTAL(9,M135:M137)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="8:14" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:14">
       <c r="H142">
         <f t="shared" ref="H142:K142" si="43">H$37</f>
         <v>0</v>
@@ -6142,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="143" spans="8:14" x14ac:dyDescent="0.3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="8:14">
       <c r="H143">
         <f t="shared" ref="H143:K143" si="44">H$7</f>
         <v>0</v>
@@ -6171,10 +6306,10 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="144" spans="8:14" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="8:14">
       <c r="H144">
         <f t="shared" ref="H144:K144" si="45">H$70</f>
         <v>0</v>
@@ -6200,10 +6335,10 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="145" spans="13:13" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="13:13">
       <c r="M145" s="16">
         <f>SUBTOTAL(9,M142:M144)</f>
         <v>0</v>
@@ -6229,18 +6364,18 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2">
         <f>3789</f>
         <v>3789</v>
@@ -6250,7 +6385,7 @@
         <v>4357.3499999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3">
         <f>6000</f>
         <v>6000</v>
@@ -6260,7 +6395,7 @@
         <v>6899.9999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4">
         <f>11150</f>
         <v>11150</v>
@@ -6270,7 +6405,7 @@
         <v>12822.499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5">
         <f>9786</f>
         <v>9786</v>
@@ -6280,7 +6415,7 @@
         <v>11253.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6">
         <f>6995</f>
         <v>6995</v>
@@ -6290,7 +6425,7 @@
         <v>8044.2499999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7">
         <f>11782</f>
         <v>11782</v>
@@ -6300,7 +6435,7 @@
         <v>13549.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8">
         <f>18170</f>
         <v>18170</v>
@@ -6310,7 +6445,7 @@
         <v>20895.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9">
         <f>18918</f>
         <v>18918</v>
@@ -6320,7 +6455,7 @@
         <v>21755.699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10">
         <f>22995</f>
         <v>22995</v>
@@ -6330,7 +6465,7 @@
         <v>26444.249999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11">
         <f>3356</f>
         <v>3356</v>
@@ -6340,7 +6475,7 @@
         <v>3859.3999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12">
         <f>2608</f>
         <v>2608</v>
@@ -6350,7 +6485,7 @@
         <v>2999.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13">
         <f>2250</f>
         <v>2250</v>
@@ -6360,7 +6495,7 @@
         <v>2587.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14">
         <f>2986</f>
         <v>2986</v>
@@ -6370,7 +6505,7 @@
         <v>3433.8999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15">
         <f>3269</f>
         <v>3269</v>
@@ -6380,7 +6515,7 @@
         <v>3759.35</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16">
         <f>3177</f>
         <v>3177</v>
@@ -6390,7 +6525,7 @@
         <v>3653.5499999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17">
         <f>2798</f>
         <v>2798</v>
@@ -6400,7 +6535,7 @@
         <v>3217.7</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18">
         <f>3160</f>
         <v>3160</v>
@@ -6410,7 +6545,7 @@
         <v>3633.9999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19">
         <f>147</f>
         <v>147</v>
@@ -6420,7 +6555,7 @@
         <v>169.04999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20">
         <f>221</f>
         <v>221</v>
@@ -6430,7 +6565,7 @@
         <v>254.14999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21">
         <f>315</f>
         <v>315</v>
@@ -6440,7 +6575,7 @@
         <v>362.25</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22">
         <f>587</f>
         <v>587</v>
@@ -6450,7 +6585,7 @@
         <v>675.05</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23">
         <f>4500</f>
         <v>4500</v>
@@ -6460,7 +6595,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24">
         <f>7000</f>
         <v>7000</v>
@@ -6470,7 +6605,7 @@
         <v>8049.9999999999991</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25">
         <f>12000</f>
         <v>12000</v>
@@ -6480,7 +6615,7 @@
         <v>13799.999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15" thickBot="1">
       <c r="A26">
         <f>13000</f>
         <v>13000</v>
@@ -6490,7 +6625,7 @@
         <v>14949.999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" ht="15" thickBot="1">
       <c r="A27" s="15">
         <f>21000</f>
         <v>21000</v>
@@ -6500,7 +6635,7 @@
         <v>24149.999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>15000</v>
       </c>
@@ -6509,7 +6644,7 @@
         <v>17250</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>24093</v>
       </c>
@@ -6518,7 +6653,7 @@
         <v>27706.949999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>22000</v>
       </c>
@@ -6527,7 +6662,7 @@
         <v>25299.999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" ht="15" thickBot="1">
       <c r="A31">
         <f>28693</f>
         <v>28693</v>
@@ -6537,7 +6672,7 @@
         <v>32996.949999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15" thickBot="1">
       <c r="A32" s="15">
         <f>30000</f>
         <v>30000</v>
@@ -6547,7 +6682,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" ht="15" thickBot="1">
       <c r="A33" s="15">
         <f>36000</f>
         <v>36000</v>
@@ -6557,7 +6692,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34">
         <f>9106</f>
         <v>9106</v>
@@ -6567,7 +6702,7 @@
         <v>10471.9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="15" thickBot="1">
       <c r="A35">
         <f>13247</f>
         <v>13247</v>
@@ -6577,7 +6712,7 @@
         <v>15234.05</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15" thickBot="1">
       <c r="A36" s="15">
         <f>35879</f>
         <v>35879</v>
@@ -6587,7 +6722,7 @@
         <v>41260.85</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37">
         <f>17249</f>
         <v>17249</v>
@@ -6597,7 +6732,7 @@
         <v>19836.349999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38">
         <f>26219</f>
         <v>26219</v>
@@ -6607,7 +6742,7 @@
         <v>30151.85</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>3009</v>
       </c>
@@ -6616,7 +6751,7 @@
         <v>3460.35</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40">
         <f>5519</f>
         <v>5519</v>
@@ -6626,7 +6761,7 @@
         <v>6346.8499999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41">
         <f>7500</f>
         <v>7500</v>
@@ -6636,7 +6771,7 @@
         <v>8625</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42">
         <f>14000</f>
         <v>14000</v>
@@ -6646,7 +6781,7 @@
         <v>16099.999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43">
         <f>16995</f>
         <v>16995</v>
@@ -6656,7 +6791,7 @@
         <v>19544.25</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44">
         <f>23000</f>
         <v>23000</v>
@@ -6666,7 +6801,7 @@
         <v>26449.999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45">
         <f>23950</f>
         <v>23950</v>
@@ -6676,7 +6811,7 @@
         <v>27542.499999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46">
         <f>29980</f>
         <v>29980</v>
@@ -6686,7 +6821,7 @@
         <v>34477</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47">
         <f>3512</f>
         <v>3512</v>
@@ -6696,7 +6831,7 @@
         <v>4038.7999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48">
         <f>3827</f>
         <v>3827</v>
@@ -6706,7 +6841,7 @@
         <v>4401.0499999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49">
         <f>6780</f>
         <v>6780</v>
@@ -6716,7 +6851,7 @@
         <v>7796.9999999999991</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50">
         <f>13693</f>
         <v>13693</v>
@@ -6726,7 +6861,7 @@
         <v>15746.949999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2">
       <c r="A51">
         <f>15200</f>
         <v>15200</v>
@@ -6736,7 +6871,7 @@
         <v>17480</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2">
       <c r="A52">
         <f>6990</f>
         <v>6990</v>
@@ -6746,7 +6881,7 @@
         <v>8038.4999999999991</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2">
       <c r="A53">
         <f>16500</f>
         <v>16500</v>
@@ -6756,7 +6891,7 @@
         <v>18975</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2">
       <c r="A54">
         <f>22995</f>
         <v>22995</v>
@@ -6766,7 +6901,7 @@
         <v>26444.249999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2">
       <c r="A55">
         <f>13795</f>
         <v>13795</v>
@@ -6776,7 +6911,7 @@
         <v>15864.249999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2">
       <c r="A56">
         <f>35079</f>
         <v>35079</v>
@@ -6786,7 +6921,7 @@
         <v>40340.85</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2">
       <c r="A57">
         <f>41979</f>
         <v>41979</v>
@@ -6796,7 +6931,7 @@
         <v>48275.85</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2">
       <c r="A58">
         <f>58510</f>
         <v>58510</v>
@@ -6806,7 +6941,7 @@
         <v>67286.5</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2">
       <c r="A59">
         <f>12708</f>
         <v>12708</v>
@@ -6816,7 +6951,7 @@
         <v>14614.199999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2">
       <c r="A60">
         <f>14487</f>
         <v>14487</v>
@@ -6826,7 +6961,7 @@
         <v>16660.05</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2">
       <c r="A61">
         <f>24312</f>
         <v>24312</v>
@@ -6836,7 +6971,7 @@
         <v>27958.799999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2">
       <c r="A62">
         <f>5636</f>
         <v>5636</v>
@@ -6846,7 +6981,7 @@
         <v>6481.4</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2">
       <c r="A63">
         <f>7134</f>
         <v>7134</v>
@@ -6856,7 +6991,7 @@
         <v>8204.0999999999985</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2">
       <c r="A64">
         <f>12071</f>
         <v>12071</v>
@@ -6866,7 +7001,7 @@
         <v>13881.65</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2">
       <c r="A65">
         <f>13841</f>
         <v>13841</v>
@@ -6876,7 +7011,7 @@
         <v>15917.15</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2">
       <c r="A66">
         <f>23276</f>
         <v>23276</v>
@@ -6886,7 +7021,7 @@
         <v>26767.399999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2">
       <c r="A67">
         <f>30657</f>
         <v>30657</v>
@@ -6896,7 +7031,7 @@
         <v>35255.549999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2">
       <c r="A68">
         <f>38582</f>
         <v>38582</v>
@@ -6906,7 +7041,7 @@
         <v>44369.299999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2">
       <c r="A69">
         <f>39268</f>
         <v>39268</v>
@@ -6916,7 +7051,7 @@
         <v>45158.2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2">
       <c r="A70">
         <f>9395</f>
         <v>9395</v>
@@ -6926,7 +7061,7 @@
         <v>10804.25</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2">
       <c r="A71">
         <f>9595</f>
         <v>9595</v>
@@ -6936,7 +7071,7 @@
         <v>11034.25</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2">
       <c r="A72">
         <f>18395</f>
         <v>18395</v>
@@ -6946,7 +7081,7 @@
         <v>21154.25</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2">
       <c r="A73">
         <f>21990</f>
         <v>21990</v>
@@ -6962,6 +7097,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100583804D756D08E4CA3423200232226B2" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3af61a159263512a7f1ce494a3d6b52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38594f89-c314-49a7-8895-5d17cbb3f834" xmlns:ns3="c062e488-6187-499b-9180-094274b6916e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e65e6323747ef5a712f1b4f0f665253a" ns2:_="" ns3:_="">
     <xsd:import namespace="38594f89-c314-49a7-8895-5d17cbb3f834"/>
@@ -7204,38 +7348,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4D44B-BA28-4ECE-9D28-DB5214D251D2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="38594f89-c314-49a7-8895-5d17cbb3f834"/>
-    <ds:schemaRef ds:uri="c062e488-6187-499b-9180-094274b6916e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FDEAF2-72F6-4DE3-BA2B-74A9F9809E88}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FDEAF2-72F6-4DE3-BA2B-74A9F9809E88}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4D44B-BA28-4ECE-9D28-DB5214D251D2}"/>
 </file>
--- a/DatabaseIndividualPricingInputFormat v2.xlsx
+++ b/DatabaseIndividualPricingInputFormat v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25502"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redbrickza.sharepoint.com/sites/Empores/Shared Documents/NovaPower/Web Pricing Database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{1A61F79C-627C-4E16-B2D7-902F4270E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D98D6001-C139-4B50-B629-AF09A1BCD908}"/>
+  <xr:revisionPtr revIDLastSave="67" documentId="8_{1A61F79C-627C-4E16-B2D7-902F4270E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC73803-DA10-4664-9CCD-04D8A37900C4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A38C0819-823B-4194-AA2B-5033FF66305C}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="186">
   <si>
     <t>ItemName</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>SizeGroup:6,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>https://thecoolguys.co.za/wp-content/uploads/2022/03/3kva-1.png</t>
   </si>
   <si>
     <t>Size-kVA:5, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5, BatVoltage-V:48, MPPTVoltage-VDC:115</t>
@@ -1087,8 +1090,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45:H52"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -2090,6 +2093,9 @@
       <c r="G38" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="H38" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="39" spans="1:8" ht="15">
       <c r="A39" s="6" t="s">
@@ -2105,7 +2111,7 @@
         <v>77</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="7">
         <f>RBCPriceGenerator!B42</f>
@@ -2114,6 +2120,9 @@
       <c r="G39" s="6" t="s">
         <v>94</v>
       </c>
+      <c r="H39" s="21" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="40" spans="1:8" ht="15">
       <c r="A40" s="6" t="s">
@@ -2126,17 +2135,20 @@
         <v>92</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="7">
         <f>RBCPriceGenerator!B43</f>
         <v>19544.25</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15">
@@ -2150,17 +2162,20 @@
         <v>92</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" s="7">
         <f>RBCPriceGenerator!B44</f>
         <v>26449.999999999996</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15">
@@ -2174,17 +2189,20 @@
         <v>92</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F42" s="7">
         <f>RBCPriceGenerator!B45</f>
         <v>27542.499999999996</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="15">
@@ -2198,17 +2216,20 @@
         <v>92</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" s="7">
         <f>RBCPriceGenerator!B46</f>
         <v>34477</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="H43" s="21" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="15">
@@ -2219,13 +2240,13 @@
         <v>75</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F44" s="9">
         <f>RBCPriceGenerator!B47</f>
@@ -2235,7 +2256,7 @@
         <v>94</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="15">
@@ -2246,23 +2267,23 @@
         <v>75</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F45" s="9">
         <f>RBCPriceGenerator!B48</f>
         <v>4401.0499999999993</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H45" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="15">
@@ -2273,13 +2294,13 @@
         <v>75</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F46" s="9">
         <f>RBCPriceGenerator!B49</f>
@@ -2289,7 +2310,7 @@
         <v>31</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="15">
@@ -2300,13 +2321,13 @@
         <v>75</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F47" s="9">
         <f>RBCPriceGenerator!B50</f>
@@ -2316,7 +2337,7 @@
         <v>94</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="15">
@@ -2327,23 +2348,23 @@
         <v>75</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48" s="9">
         <f>RBCPriceGenerator!B51</f>
         <v>17480</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="15">
@@ -2354,23 +2375,23 @@
         <v>75</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="9">
         <f>RBCPriceGenerator!B55</f>
         <v>15864.249999999998</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H49" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="15">
@@ -2381,23 +2402,23 @@
         <v>75</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F50" s="9">
         <f>RBCPriceGenerator!B56</f>
         <v>40340.85</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="15">
@@ -2408,23 +2429,23 @@
         <v>75</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F51" s="9">
         <f>RBCPriceGenerator!B57</f>
         <v>48275.85</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="15">
@@ -2435,23 +2456,23 @@
         <v>75</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F52" s="9">
         <f>RBCPriceGenerator!B58</f>
         <v>67286.5</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="15">
@@ -2462,20 +2483,20 @@
         <v>75</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2">
         <f>RBCPriceGenerator!B59</f>
         <v>14614.199999999999</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="15">
@@ -2486,20 +2507,20 @@
         <v>75</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2">
         <f>RBCPriceGenerator!B60</f>
         <v>16660.05</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="15">
@@ -2510,20 +2531,20 @@
         <v>75</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2">
         <f>RBCPriceGenerator!B61</f>
         <v>27958.799999999999</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="15">
@@ -2534,20 +2555,20 @@
         <v>75</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2">
         <f>RBCPriceGenerator!B62</f>
         <v>6481.4</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="15">
@@ -2558,20 +2579,20 @@
         <v>75</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2">
         <f>RBCPriceGenerator!B63</f>
         <v>8204.0999999999985</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="15">
@@ -2582,20 +2603,20 @@
         <v>75</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F58" s="2">
         <f>RBCPriceGenerator!B64</f>
         <v>13881.65</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:8" s="5" customFormat="1" ht="15">
@@ -2606,20 +2627,20 @@
         <v>75</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F59" s="2">
         <f>RBCPriceGenerator!B65</f>
         <v>15917.15</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H59" s="19"/>
     </row>
@@ -2631,20 +2652,20 @@
         <v>75</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F60" s="2">
         <f>RBCPriceGenerator!B66</f>
         <v>26767.399999999998</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H60" s="19"/>
     </row>
@@ -2656,20 +2677,20 @@
         <v>75</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F61" s="12">
         <f>RBCPriceGenerator!B70</f>
         <v>10804.25</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H61" s="19"/>
     </row>
@@ -2681,20 +2702,20 @@
         <v>75</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F62" s="12">
         <f>RBCPriceGenerator!B71</f>
         <v>11034.25</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H62" s="19"/>
     </row>
@@ -2706,20 +2727,20 @@
         <v>75</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F63" s="12">
         <f>RBCPriceGenerator!B72</f>
         <v>21154.25</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="H63" s="19"/>
     </row>
@@ -2731,38 +2752,38 @@
         <v>75</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F64" s="12">
         <f>RBCPriceGenerator!B73</f>
         <v>25288.499999999996</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H64" s="19"/>
     </row>
     <row r="65" spans="1:8" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F65" s="14">
         <f>RBCPriceGenerator!B13</f>
@@ -2774,19 +2795,19 @@
     </row>
     <row r="66" spans="1:8" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F66" s="14">
         <f>RBCPriceGenerator!B14</f>
@@ -2798,19 +2819,19 @@
     </row>
     <row r="67" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F67" s="14">
         <f>RBCPriceGenerator!B15</f>
@@ -2823,19 +2844,19 @@
     </row>
     <row r="68" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F68" s="14">
         <f>RBCPriceGenerator!B16</f>
@@ -2848,19 +2869,19 @@
     </row>
     <row r="69" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F69" s="14">
         <f>RBCPriceGenerator!B17</f>
@@ -2873,19 +2894,19 @@
     </row>
     <row r="70" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F70" s="14">
         <f>RBCPriceGenerator!B18</f>
@@ -2898,82 +2919,82 @@
     </row>
     <row r="71" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A71" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F71" s="2">
         <f>RBCPriceGenerator!B67</f>
         <v>35255.549999999996</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H71"/>
     </row>
     <row r="72" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A72" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F72" s="2">
         <f>RBCPriceGenerator!B68</f>
         <v>44369.299999999996</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H72"/>
     </row>
     <row r="73" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="A73" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F73" s="2">
         <f>RBCPriceGenerator!B69</f>
         <v>45158.2</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H73"/>
     </row>
     <row r="74" spans="1:8" ht="15" hidden="1" thickBot="1">
       <c r="C74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F74" s="12">
         <f>RBCPriceGenerator!B74</f>
@@ -3212,6 +3233,8 @@
   <hyperlinks>
     <hyperlink ref="H45" r:id="rId1" xr:uid="{5AC0C6E4-66C8-46E6-80A8-12658489C699}"/>
     <hyperlink ref="H46:H52" r:id="rId2" display="https://i.ibb.co/N2BqyKx/Rentech-5-6.png" xr:uid="{0AE3E508-AADC-4871-B8E8-A8BE2D77B813}"/>
+    <hyperlink ref="H38" r:id="rId3" xr:uid="{7E430A18-0B09-47BD-8436-95CDF5D784DB}"/>
+    <hyperlink ref="H39:H43" r:id="rId4" display="https://thecoolguys.co.za/wp-content/uploads/2022/03/3kva-1.png" xr:uid="{A68A78BA-2918-4268-9449-0F7F842D2D78}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4159,7 +4182,7 @@
         <v>77</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F39" s="7">
         <f>RBCPriceGenerator!B42</f>
@@ -4180,17 +4203,17 @@
         <v>92</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E40" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F40" s="7">
         <f>RBCPriceGenerator!B43</f>
         <v>19544.25</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" thickBot="1">
@@ -4204,17 +4227,17 @@
         <v>92</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F41" s="7">
         <f>RBCPriceGenerator!B44</f>
         <v>26449.999999999996</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" thickBot="1">
@@ -4228,17 +4251,17 @@
         <v>92</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E42" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F42" s="7">
         <f>RBCPriceGenerator!B45</f>
         <v>27542.499999999996</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="15" thickBot="1">
@@ -4252,17 +4275,17 @@
         <v>92</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E43" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" s="7">
         <f>RBCPriceGenerator!B46</f>
         <v>34477</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" thickBot="1">
@@ -4273,13 +4296,13 @@
         <v>75</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D44" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F44" s="9">
         <f>RBCPriceGenerator!B47</f>
@@ -4297,20 +4320,20 @@
         <v>75</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D45" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F45" s="9">
         <f>RBCPriceGenerator!B48</f>
         <v>4401.0499999999993</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" thickBot="1">
@@ -4321,13 +4344,13 @@
         <v>75</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F46" s="9">
         <f>RBCPriceGenerator!B49</f>
@@ -4345,13 +4368,13 @@
         <v>75</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>77</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F47" s="9">
         <f>RBCPriceGenerator!B50</f>
@@ -4369,20 +4392,20 @@
         <v>75</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>81</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F48" s="9">
         <f>RBCPriceGenerator!B51</f>
         <v>17480</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="15" thickBot="1">
@@ -4393,20 +4416,20 @@
         <v>75</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F49" s="9">
         <f>RBCPriceGenerator!B55</f>
         <v>15864.249999999998</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="15" thickBot="1">
@@ -4417,20 +4440,20 @@
         <v>75</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E50" s="8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F50" s="9">
         <f>RBCPriceGenerator!B56</f>
         <v>40340.85</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="15" thickBot="1">
@@ -4441,20 +4464,20 @@
         <v>75</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E51" s="8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F51" s="9">
         <f>RBCPriceGenerator!B57</f>
         <v>48275.85</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" thickBot="1">
@@ -4465,20 +4488,20 @@
         <v>75</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F52" s="9">
         <f>RBCPriceGenerator!B58</f>
         <v>67286.5</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" thickBot="1">
@@ -4489,20 +4512,20 @@
         <v>75</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F53" s="2">
         <f>RBCPriceGenerator!B59</f>
         <v>14614.199999999999</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" thickBot="1">
@@ -4513,20 +4536,20 @@
         <v>75</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="2">
         <f>RBCPriceGenerator!B60</f>
         <v>16660.05</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="15" thickBot="1">
@@ -4537,20 +4560,20 @@
         <v>75</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F55" s="2">
         <f>RBCPriceGenerator!B61</f>
         <v>27958.799999999999</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="15" thickBot="1">
@@ -4561,20 +4584,20 @@
         <v>75</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F56" s="2">
         <f>RBCPriceGenerator!B62</f>
         <v>6481.4</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="15" thickBot="1">
@@ -4585,20 +4608,20 @@
         <v>75</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F57" s="2">
         <f>RBCPriceGenerator!B63</f>
         <v>8204.0999999999985</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="15" thickBot="1">
@@ -4609,20 +4632,20 @@
         <v>75</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F58" s="2">
         <f>RBCPriceGenerator!B64</f>
         <v>13881.65</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
@@ -4633,20 +4656,20 @@
         <v>75</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F59" s="2">
         <f>RBCPriceGenerator!B65</f>
         <v>15917.15</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
@@ -4657,20 +4680,20 @@
         <v>75</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F60" s="2">
         <f>RBCPriceGenerator!B66</f>
         <v>26767.399999999998</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
@@ -4681,20 +4704,20 @@
         <v>75</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F61" s="12">
         <f>RBCPriceGenerator!B70</f>
         <v>10804.25</v>
       </c>
       <c r="G61" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
@@ -4705,20 +4728,20 @@
         <v>75</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F62" s="12">
         <f>RBCPriceGenerator!B71</f>
         <v>11034.25</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
@@ -4729,20 +4752,20 @@
         <v>75</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F63" s="12">
         <f>RBCPriceGenerator!B72</f>
         <v>21154.25</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
@@ -4753,37 +4776,37 @@
         <v>75</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F64" s="12">
         <f>RBCPriceGenerator!B73</f>
         <v>25288.499999999996</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B65" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C65" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D65" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F65" s="14">
         <f>RBCPriceGenerator!B13</f>
@@ -4795,19 +4818,19 @@
     </row>
     <row r="66" spans="1:7" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C66" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E66" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F66" s="14">
         <f>RBCPriceGenerator!B14</f>
@@ -4819,19 +4842,19 @@
     </row>
     <row r="67" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B67" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C67" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F67" s="14">
         <f>RBCPriceGenerator!B15</f>
@@ -4843,19 +4866,19 @@
     </row>
     <row r="68" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D68" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F68" s="14">
         <f>RBCPriceGenerator!B16</f>
@@ -4867,19 +4890,19 @@
     </row>
     <row r="69" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D69" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E69" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F69" s="14">
         <f>RBCPriceGenerator!B17</f>
@@ -4891,19 +4914,19 @@
     </row>
     <row r="70" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C70" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D70" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E70" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F70" s="14">
         <f>RBCPriceGenerator!B18</f>
@@ -4915,79 +4938,79 @@
     </row>
     <row r="71" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A71" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D71" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F71" s="2">
         <f>RBCPriceGenerator!B67</f>
         <v>35255.549999999996</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A72" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F72" s="2">
         <f>RBCPriceGenerator!B68</f>
         <v>44369.299999999996</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="A73" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D73" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F73" s="2">
         <f>RBCPriceGenerator!B69</f>
         <v>45158.2</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="C74" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F74" s="12">
         <f>RBCPriceGenerator!B74</f>
@@ -5038,7 +5061,7 @@
         <v>10471.9</v>
       </c>
       <c r="G81" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -5067,7 +5090,7 @@
         <v>13549.3</v>
       </c>
       <c r="G82" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -5096,7 +5119,7 @@
         <v>15525</v>
       </c>
       <c r="G83" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -5134,7 +5157,7 @@
         <v>10471.9</v>
       </c>
       <c r="G86" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -5163,7 +5186,7 @@
         <v>27098.6</v>
       </c>
       <c r="G87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -5192,7 +5215,7 @@
         <v>20700</v>
       </c>
       <c r="G88" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -5230,7 +5253,7 @@
         <v>15234.05</v>
       </c>
       <c r="G91" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -5259,7 +5282,7 @@
         <v>26444.249999999996</v>
       </c>
       <c r="G92" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -5288,7 +5311,7 @@
         <v>29071.999999999996</v>
       </c>
       <c r="G93" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -5329,7 +5352,7 @@
         <v>15234.05</v>
       </c>
       <c r="G97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -5358,7 +5381,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G98" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -5387,7 +5410,7 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G99" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -5428,7 +5451,7 @@
         <v>41260.85</v>
       </c>
       <c r="G103" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -5457,7 +5480,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G104" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -5486,7 +5509,7 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G105" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -5519,7 +5542,7 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -5549,7 +5572,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -5579,7 +5602,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -5615,7 +5638,7 @@
         <v>41260.85</v>
       </c>
       <c r="G110" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M110" s="16"/>
     </row>
@@ -5645,7 +5668,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G111" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H111">
         <f t="shared" ref="H111:I111" si="23">H$35</f>
@@ -5672,7 +5695,7 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -5701,7 +5724,7 @@
         <v>43607.999999999993</v>
       </c>
       <c r="G112" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H112">
         <f>H$4</f>
@@ -5728,7 +5751,7 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -5761,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -5799,7 +5822,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -5828,7 +5851,7 @@
         <v>41260.85</v>
       </c>
       <c r="G117" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H117">
         <f t="shared" ref="H117:K117" si="30">H$7</f>
@@ -5855,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -5884,7 +5907,7 @@
         <v>79332.749999999985</v>
       </c>
       <c r="G118" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H118">
         <f t="shared" ref="H118:K118" si="32">H$70</f>
@@ -5911,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -5940,7 +5963,7 @@
         <v>50875.999999999993</v>
       </c>
       <c r="G119" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M119" s="16">
         <f>SUBTOTAL(9,M116:M118)</f>
@@ -5983,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -6012,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -6041,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -6082,7 +6105,7 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="129" spans="8:14">
@@ -6111,7 +6134,7 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="130" spans="8:14">
@@ -6140,7 +6163,7 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="8:14">
@@ -6184,7 +6207,7 @@
         <v>0</v>
       </c>
       <c r="N135" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="136" spans="8:14">
@@ -6213,7 +6236,7 @@
         <v>0</v>
       </c>
       <c r="N136" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="137" spans="8:14">
@@ -6242,7 +6265,7 @@
         <v>0</v>
       </c>
       <c r="N137" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="138" spans="8:14">
@@ -6277,7 +6300,7 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="143" spans="8:14">
@@ -6306,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="144" spans="8:14">
@@ -6335,7 +6358,7 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="145" spans="13:13">

--- a/DatabaseIndividualPricingInputFormat v2.xlsx
+++ b/DatabaseIndividualPricingInputFormat v2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redbrickza.sharepoint.com/sites/Empores/Shared Documents/NovaPower/Web Pricing Database/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sthembiso Musana\Documents\Novapower\novapower\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="67" documentId="8_{1A61F79C-627C-4E16-B2D7-902F4270E39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DCC73803-DA10-4664-9CCD-04D8A37900C4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A071684D-EBD8-4F55-B31F-C23719360DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A38C0819-823B-4194-AA2B-5033FF66305C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A38C0819-823B-4194-AA2B-5033FF66305C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="217">
   <si>
     <t>ItemName</t>
   </si>
@@ -172,9 +172,6 @@
     <t>Size-kVA:1.2, EngineSize-Stroke: 4</t>
   </si>
   <si>
-    <t>https://www.makro.co.za/sys-master/images/h06/h98/9800090222622/silo-MIN_237823_EAA_large</t>
-  </si>
-  <si>
     <t>Key-Start</t>
   </si>
   <si>
@@ -599,6 +596,102 @@
   </si>
   <si>
     <t>14x375w</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcStvIscksbqPOwO56ThOjZCwL9ZKwRCNqJ1X0tQL5VlJpwL0ld8lQGS&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>VM533:2 https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQIPEr3u_5ljTP248sg9Qkpv7BniIqJBzA8_w&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSRw7-ah5imrZEPEmXYp1O6ILKwwkYNMw7md5wVqYRzXbxb6BpD-SLI&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQbVGKRHnhl8k3dtp4_IWlX8xLkBYiBVn3dba2Dis4YhhzEBrXjP7MH&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR2-oEyJhQO5JT60OFECoJDkj1PylghfyswwA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS_jes1APF0XDWKeee18-vw7VOgjgey_Rdkbg&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRtEctovP2sVIM9-J2KkBbdTvC0D6xNh0WLOQ&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ5IHJ_gHRFv7WU0z3MHJYkPcp97c74Fe59zA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTBMr6SjYmC1uqFQulGvoijp8Rhnxn57cm4Sg&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTZGHV_ga6APxf__0bhrKbgQnP-LXvghWY44A&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRVJluUhjUqRDX8OnkrK5QUWUqoOXeNODhT3A&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTwBKSPldFVgYPa84xI18pU-WcxzeawG6B4CA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTBJVPve2lp0mIkVuYHoxc4k0CYWiiuHP-dww&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTkc3F85ayYQBwmNerOKo3wGeAZTq2npFrBgw&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTWZ9NMioii648wwQOgh-HZwzSOkDNizemZwA&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTWjjf2AdpDA1LkcIxnkd8PO-Ru1ZubM4MKBQ&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQD4IDdkGGvLVCN1AGGhYJ2ySjVJvjP5x_g8iM0k1CU7tr1r9CuFEVJBvAP8zVlGyJLVLo&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRgh7y6poj7W7XGYICnSbq9Q-BRFX-B6oGTMtfKWFnk_XI2rGntnnj-vTrs5LrZLnAu5aM&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRTP95d_xluWm6j40RPfMoUVvCEk5bZb2P9pg&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQ3tWNM0O9pWP6mHfCO352EKWLsBkDr1knfJw&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT4PevijeU6mbeszl-gi-JOpkS_KP8XYB8uchQATYg3O4W0Wi_w9atJ8BpQvxGpL9Q7so4&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>VM228:2 https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTRkrxnV7CBjR-klfLjM-aj24l5vFUU6XlQMZJWSwLuHKBETgJ5a1Nk_FKKNelDMGIQpOk&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>VM228:2 https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQRy2O6OkG3ExxorTbYpqSgyZD5ZdF1pRpP04XIuFErxZdjViZiwGBBIUWeo2ldG-o-GW4&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>VM228:2 https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRFIztAvz7p0PaxOWJBSaowJObvLK8FnoV3zECmPYqL2fkkkvNYGi_UuDoOgWSYD1dNyp8&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRTtk3bsxUXiQKJHwuDkYMOJ_BlHDyTxDSq4orhpoJJCaWWx601yyj-Ft9KLtcDEcx0B7Q&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRr1IRr3_mCT4vTDEdekGLQaIkkMe-JAIacMqaslZJtyfIgKnly7EVY8oJ_1t5FScXnH9g&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcR7A1w3HvPZjPbo3dMBQxug6HkhmeURIrDmLRWgKG2rLZLKekdOIzknI-Mt_2-TzNbVVKk&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTWj6DCPuOUAC86bz2LskMAyk0Z1UE3hHBwiOokTzpoHtD7P0FZO4cuKOL60jZCzzwq7NU&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQmj0oUYcfGfM-i_ebq3KYRFws2WvridiQRG7yGkF0--O046IwlY8jJMpi8_n_18gFTrbc&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcS-mSt8lqrIIsTyjc_tJHJ-Il776sQkJg-LsJ1fQbXkUFwrlDZ0BO-YEFtjLqHUdCnTGko&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSflzIOzCdmxiT6B8xTIVUG0d6AkZ27wEhtH7dYpm0PqLzzXrwLwcuj8pSMkmvBpzVlsus&amp;usqp=CAU</t>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcT6Ld2ozg63b0qQbAaAKCKPwLUaVoxwbp1C5-Ycz_n5JK7PhTzXdx9bv4QVUnv6u2SLXxo&amp;usqp=CAU</t>
   </si>
 </sst>
 </file>
@@ -610,7 +703,7 @@
     <numFmt numFmtId="165" formatCode="_-[$R-1C09]* #,##0_-;\-[$R-1C09]* #,##0_-;_-[$R-1C09]* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="_-[$R-1C09]* #,##0.00_-;\-[$R-1C09]* #,##0.00_-;_-[$R-1C09]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,7 +835,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -765,6 +858,7 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1090,11 +1184,11 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -1102,11 +1196,11 @@
     <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="83" customWidth="1"/>
     <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.42578125" customWidth="1"/>
+    <col min="7" max="7" width="83.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="97.42578125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="15">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,7 +1226,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="2" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1155,9 +1249,11 @@
       <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H2"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1180,9 +1276,11 @@
       <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3"/>
-    </row>
-    <row r="4" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H3" s="21" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1205,9 +1303,11 @@
       <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4"/>
-    </row>
-    <row r="5" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H4" s="21" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1230,9 +1330,11 @@
       <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5"/>
-    </row>
-    <row r="6" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H5" s="21" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1255,9 +1357,11 @@
       <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6"/>
-    </row>
-    <row r="7" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H6" s="21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1280,9 +1384,11 @@
       <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7"/>
-    </row>
-    <row r="8" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H7" s="21" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1305,9 +1411,11 @@
       <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H8" s="21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1330,9 +1438,11 @@
       <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H9" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1355,9 +1465,11 @@
       <c r="G10" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H10"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H10" s="21" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -1380,9 +1492,11 @@
       <c r="G11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H11"/>
-    </row>
-    <row r="12" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H11" s="21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1405,9 +1519,11 @@
       <c r="G12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H12"/>
-    </row>
-    <row r="13" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H12" s="21" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -1430,9 +1546,11 @@
       <c r="G13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H13"/>
-    </row>
-    <row r="14" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H13" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
@@ -1455,9 +1573,11 @@
       <c r="G14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H14"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H14" s="21" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
@@ -1480,9 +1600,11 @@
       <c r="G15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H15"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H15" s="21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
@@ -1505,9 +1627,11 @@
       <c r="G16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="H16"/>
-    </row>
-    <row r="17" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H16" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1531,10 +1655,10 @@
         <v>13</v>
       </c>
       <c r="H17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15" hidden="1" thickBot="1">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1545,10 +1669,10 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
       </c>
       <c r="F18" s="14">
         <f>RBCPriceGenerator!B24</f>
@@ -1558,24 +1682,24 @@
         <v>13</v>
       </c>
       <c r="H18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="15" hidden="1" thickBot="1">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
       </c>
       <c r="F19" s="14">
         <f>RBCPriceGenerator!B19</f>
@@ -1585,24 +1709,24 @@
         <v>13</v>
       </c>
       <c r="H19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15" hidden="1" thickBot="1">
-      <c r="A20" t="s">
-        <v>47</v>
-      </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
       </c>
       <c r="F20" s="14">
         <f>RBCPriceGenerator!B20</f>
@@ -1611,65 +1735,65 @@
       <c r="G20" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="21" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" ht="15" hidden="1" thickBot="1">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
       </c>
       <c r="F21" s="14">
         <f>RBCPriceGenerator!B21</f>
         <v>362.25</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
         <v>58</v>
-      </c>
-      <c r="H21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15" hidden="1" thickBot="1">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
       </c>
       <c r="F22" s="14">
         <f>RBCPriceGenerator!B22</f>
         <v>675.05</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15" hidden="1" thickBot="1">
+        <v>57</v>
+      </c>
+      <c r="H22" s="21" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -1680,10 +1804,10 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="14">
         <f>RBCPriceGenerator!B25</f>
@@ -1693,10 +1817,10 @@
         <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="15" hidden="1" thickBot="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -1707,10 +1831,10 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="14">
         <f>RBCPriceGenerator!B26</f>
@@ -1720,10 +1844,10 @@
         <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="15" hidden="1" thickBot="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1734,10 +1858,10 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="14">
         <f>RBCPriceGenerator!B27</f>
@@ -1747,24 +1871,24 @@
         <v>13</v>
       </c>
       <c r="H25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="15" hidden="1" thickBot="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
         <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
       </c>
       <c r="F26" s="14">
         <f>RBCPriceGenerator!B28</f>
@@ -1774,24 +1898,24 @@
         <v>13</v>
       </c>
       <c r="H26" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="15" hidden="1" thickBot="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
         <v>67</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
       </c>
       <c r="F27" s="14">
         <f>RBCPriceGenerator!B29</f>
@@ -1802,21 +1926,21 @@
       </c>
       <c r="H27"/>
     </row>
-    <row r="28" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="28" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="14">
         <f>RBCPriceGenerator!B30</f>
@@ -1826,24 +1950,24 @@
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="15" hidden="1" thickBot="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="14">
         <f>RBCPriceGenerator!B31</f>
@@ -1854,21 +1978,21 @@
       </c>
       <c r="H29"/>
     </row>
-    <row r="30" spans="1:8" ht="15" hidden="1" thickBot="1">
+    <row r="30" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="14">
         <f>RBCPriceGenerator!B32</f>
@@ -1878,24 +2002,24 @@
         <v>13</v>
       </c>
       <c r="H30" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="15" hidden="1" thickBot="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="14">
         <f>RBCPriceGenerator!B33</f>
@@ -1905,105 +2029,105 @@
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>77</v>
-      </c>
-      <c r="E32" t="s">
-        <v>78</v>
       </c>
       <c r="F32" s="14">
         <f>RBCPriceGenerator!B2</f>
         <v>4357.3499999999995</v>
       </c>
       <c r="G32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="18" t="s">
+    </row>
+    <row r="33" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" ht="15">
-      <c r="A33" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
       </c>
       <c r="F33" s="14">
         <f>RBCPriceGenerator!B3</f>
         <v>6899.9999999999991</v>
       </c>
       <c r="G33" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="H33" s="18" t="s">
+    </row>
+    <row r="34" spans="1:8" s="5" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" ht="15">
-      <c r="A34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" t="s">
-        <v>81</v>
-      </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="14">
         <f>RBCPriceGenerator!B4</f>
         <v>12822.499999999998</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" ht="15">
-      <c r="A35" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="3" t="s">
+      <c r="D35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F35" s="4">
         <f>RBCPriceGenerator!B34</f>
@@ -2013,24 +2137,24 @@
         <v>31</v>
       </c>
       <c r="H35" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" s="3" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="15">
-      <c r="A36" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>88</v>
       </c>
       <c r="F36" s="4">
         <f>RBCPriceGenerator!B35</f>
@@ -2040,24 +2164,24 @@
         <v>31</v>
       </c>
       <c r="H36" s="18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="15">
-      <c r="A37" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E37" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="F37" s="4">
         <f>RBCPriceGenerator!B36</f>
@@ -2067,240 +2191,240 @@
         <v>31</v>
       </c>
       <c r="H37" s="18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="15">
-      <c r="A38" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="F38" s="7">
         <f>RBCPriceGenerator!B41</f>
         <v>8625</v>
       </c>
       <c r="G38" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H38" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H38" s="21" t="s">
+    </row>
+    <row r="39" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>95</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="15">
-      <c r="A39" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>96</v>
       </c>
       <c r="F39" s="7">
         <f>RBCPriceGenerator!B42</f>
         <v>16099.999999999998</v>
       </c>
       <c r="G39" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H39" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="H39" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="15">
+    </row>
+    <row r="40" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="F40" s="7">
         <f>RBCPriceGenerator!B43</f>
         <v>19544.25</v>
       </c>
       <c r="G40" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H40" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="15">
-      <c r="A41" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="F41" s="7">
         <f>RBCPriceGenerator!B44</f>
         <v>26449.999999999996</v>
       </c>
       <c r="G41" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="H41" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>102</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="15">
-      <c r="A42" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="F42" s="7">
         <f>RBCPriceGenerator!B45</f>
         <v>27542.499999999996</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="H42" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="15">
-      <c r="A43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="E43" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" s="7">
         <f>RBCPriceGenerator!B46</f>
         <v>34477</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H43" s="21" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="15">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C44" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="F44" s="9">
         <f>RBCPriceGenerator!B47</f>
         <v>4038.7999999999997</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H44" s="18" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" ht="15">
-      <c r="A45" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="8" t="s">
+      <c r="D45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="F45" s="9">
         <f>RBCPriceGenerator!B48</f>
         <v>4401.0499999999993</v>
       </c>
       <c r="G45" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="H45" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>110</v>
-      </c>
-      <c r="H45" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="F46" s="9">
         <f>RBCPriceGenerator!B49</f>
@@ -2310,480 +2434,480 @@
         <v>31</v>
       </c>
       <c r="H46" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C47" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="9">
         <f>RBCPriceGenerator!B50</f>
         <v>15746.949999999999</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H47" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C48" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="9">
         <f>RBCPriceGenerator!B51</f>
         <v>17480</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H48" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="F49" s="9">
         <f>RBCPriceGenerator!B55</f>
         <v>15864.249999999998</v>
       </c>
       <c r="G49" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H49" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="H49" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="15">
-      <c r="A50" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="F50" s="9">
         <f>RBCPriceGenerator!B56</f>
         <v>40340.85</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H50" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F51" s="9">
         <f>RBCPriceGenerator!B57</f>
         <v>48275.85</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H51" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="E52" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F52" s="9">
         <f>RBCPriceGenerator!B58</f>
         <v>67286.5</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H52" s="21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C53" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="F53" s="2">
         <f>RBCPriceGenerator!B59</f>
         <v>14614.199999999999</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C54" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2">
         <f>RBCPriceGenerator!B60</f>
         <v>16660.05</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C55" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="F55" s="2">
         <f>RBCPriceGenerator!B61</f>
         <v>27958.799999999999</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="15">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C56" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="F56" s="2">
         <f>RBCPriceGenerator!B62</f>
         <v>6481.4</v>
       </c>
       <c r="G56" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="15">
-      <c r="A57" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="F57" s="2">
         <f>RBCPriceGenerator!B63</f>
         <v>8204.0999999999985</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="15">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="F58" s="2">
         <f>RBCPriceGenerator!B64</f>
         <v>13881.65</v>
       </c>
       <c r="G58" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="5" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="5" customFormat="1" ht="15">
-      <c r="A59" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="F59" s="2">
         <f>RBCPriceGenerator!B65</f>
         <v>15917.15</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H59" s="19"/>
     </row>
-    <row r="60" spans="1:8" s="5" customFormat="1" ht="15">
+    <row r="60" spans="1:8" s="5" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C60" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2">
         <f>RBCPriceGenerator!B66</f>
         <v>26767.399999999998</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H60" s="19"/>
     </row>
-    <row r="61" spans="1:8" s="5" customFormat="1" ht="15">
+    <row r="61" spans="1:8" s="5" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="F61" s="12">
         <f>RBCPriceGenerator!B70</f>
         <v>10804.25</v>
       </c>
       <c r="G61" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H61" s="19"/>
+    </row>
+    <row r="62" spans="1:8" s="5" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="H61" s="19"/>
-    </row>
-    <row r="62" spans="1:8" s="5" customFormat="1" ht="15">
-      <c r="A62" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="F62" s="12">
         <f>RBCPriceGenerator!B71</f>
         <v>11034.25</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H62" s="19"/>
     </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" ht="15">
+    <row r="63" spans="1:8" s="5" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C63" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="F63" s="12">
         <f>RBCPriceGenerator!B72</f>
         <v>21154.25</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H63" s="19"/>
     </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" ht="15">
+    <row r="64" spans="1:8" s="5" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C64" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F64" s="12">
         <f>RBCPriceGenerator!B73</f>
         <v>25288.499999999996</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H64" s="19"/>
     </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
+    <row r="65" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
         <v>144</v>
       </c>
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>145</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>146</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
       </c>
       <c r="F65" s="14">
         <f>RBCPriceGenerator!B13</f>
@@ -2792,22 +2916,25 @@
       <c r="G65" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
+      <c r="H65" s="22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" t="s">
         <v>148</v>
-      </c>
-      <c r="D66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" t="s">
-        <v>149</v>
       </c>
       <c r="F66" s="14">
         <f>RBCPriceGenerator!B14</f>
@@ -2816,22 +2943,25 @@
       <c r="G66" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H66" s="22" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" t="s">
         <v>150</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>151</v>
-      </c>
-      <c r="E67" t="s">
-        <v>152</v>
       </c>
       <c r="F67" s="14">
         <f>RBCPriceGenerator!B15</f>
@@ -2840,23 +2970,25 @@
       <c r="G67" t="s">
         <v>31</v>
       </c>
-      <c r="H67"/>
-    </row>
-    <row r="68" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H67" s="21" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
         <v>153</v>
-      </c>
-      <c r="D68" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" t="s">
-        <v>154</v>
       </c>
       <c r="F68" s="14">
         <f>RBCPriceGenerator!B16</f>
@@ -2865,23 +2997,25 @@
       <c r="G68" t="s">
         <v>31</v>
       </c>
-      <c r="H68"/>
-    </row>
-    <row r="69" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H68" s="21" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
         <v>155</v>
-      </c>
-      <c r="D69" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" t="s">
-        <v>156</v>
       </c>
       <c r="F69" s="14">
         <f>RBCPriceGenerator!B17</f>
@@ -2890,23 +3024,25 @@
       <c r="G69" t="s">
         <v>31</v>
       </c>
-      <c r="H69"/>
-    </row>
-    <row r="70" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H69" s="21" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" t="s">
         <v>150</v>
       </c>
-      <c r="D70" t="s">
-        <v>151</v>
-      </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F70" s="14">
         <f>RBCPriceGenerator!B18</f>
@@ -2915,317 +3051,331 @@
       <c r="G70" t="s">
         <v>31</v>
       </c>
-      <c r="H70"/>
-    </row>
-    <row r="71" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H70" s="21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="F71" s="2">
         <f>RBCPriceGenerator!B67</f>
         <v>35255.549999999996</v>
       </c>
       <c r="G71" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H71" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="H71"/>
-    </row>
-    <row r="72" spans="1:8" ht="15" hidden="1" thickBot="1">
-      <c r="A72" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="D72" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="F72" s="2">
         <f>RBCPriceGenerator!B68</f>
         <v>44369.299999999996</v>
       </c>
       <c r="G72" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H72" s="21" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="H72"/>
-    </row>
-    <row r="73" spans="1:8" ht="15" hidden="1" thickBot="1">
-      <c r="A73" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="D73" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="F73" s="2">
         <f>RBCPriceGenerator!B69</f>
         <v>45158.2</v>
       </c>
       <c r="G73" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="H73" s="21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>169</v>
-      </c>
-      <c r="H73"/>
-    </row>
-    <row r="74" spans="1:8" ht="15" hidden="1" thickBot="1">
-      <c r="C74" t="s">
-        <v>170</v>
       </c>
       <c r="F74" s="12">
         <f>RBCPriceGenerator!B74</f>
         <v>0</v>
       </c>
-      <c r="H74"/>
-    </row>
-    <row r="75" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H74" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F75" s="12">
         <f>RBCPriceGenerator!B75</f>
         <v>0</v>
       </c>
-      <c r="H75"/>
-    </row>
-    <row r="76" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H75" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F76" s="12">
         <f>RBCPriceGenerator!B76</f>
         <v>0</v>
       </c>
-      <c r="H76"/>
-    </row>
-    <row r="77" spans="1:8" ht="15" hidden="1" thickBot="1">
+      <c r="H76" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F77" s="12">
         <f>RBCPriceGenerator!B77</f>
         <v>0</v>
       </c>
       <c r="H77"/>
     </row>
-    <row r="81" spans="6:6" ht="15">
+    <row r="81" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F81" s="16"/>
     </row>
-    <row r="82" spans="6:6" ht="15">
+    <row r="82" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F82" s="16"/>
     </row>
-    <row r="83" spans="6:6" ht="15">
+    <row r="83" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F83" s="16"/>
     </row>
-    <row r="84" spans="6:6" ht="15">
+    <row r="84" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F84" s="16"/>
     </row>
-    <row r="85" spans="6:6" ht="15">
+    <row r="85" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="6:6" ht="15">
+    <row r="86" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F86" s="16"/>
     </row>
-    <row r="87" spans="6:6" ht="15">
+    <row r="87" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F87" s="16"/>
     </row>
-    <row r="88" spans="6:6" ht="15">
+    <row r="88" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F88" s="16"/>
     </row>
-    <row r="89" spans="6:6" ht="15">
+    <row r="89" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F89" s="16"/>
     </row>
-    <row r="90" spans="6:6" ht="15">
+    <row r="90" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="6:6" ht="15">
+    <row r="91" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F91" s="16"/>
     </row>
-    <row r="92" spans="6:6" ht="15">
+    <row r="92" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F92" s="16"/>
     </row>
-    <row r="93" spans="6:6" ht="15">
+    <row r="93" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F93" s="16"/>
     </row>
-    <row r="94" spans="6:6" ht="15">
+    <row r="94" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F94" s="16"/>
     </row>
-    <row r="95" spans="6:6" ht="15">
+    <row r="95" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="6:6" ht="15">
+    <row r="96" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="6:13" ht="15">
+    <row r="97" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="6:13" ht="15">
+    <row r="98" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F98" s="16"/>
     </row>
-    <row r="99" spans="6:13" ht="15">
+    <row r="99" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F99" s="16"/>
     </row>
-    <row r="100" spans="6:13" ht="15">
+    <row r="100" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F100" s="16"/>
     </row>
-    <row r="101" spans="6:13" ht="15">
+    <row r="101" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="6:13" ht="15">
+    <row r="102" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="6:13" ht="15">
+    <row r="103" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F103" s="16"/>
     </row>
-    <row r="104" spans="6:13" ht="15">
+    <row r="104" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F104" s="16"/>
     </row>
-    <row r="105" spans="6:13" ht="15">
+    <row r="105" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F105" s="16"/>
     </row>
-    <row r="106" spans="6:13" ht="15">
+    <row r="106" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F106" s="16"/>
       <c r="M106" s="16"/>
     </row>
-    <row r="107" spans="6:13" ht="15">
+    <row r="107" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F107" s="16"/>
       <c r="M107" s="16"/>
     </row>
-    <row r="108" spans="6:13" ht="15">
+    <row r="108" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F108" s="16"/>
       <c r="M108" s="16"/>
     </row>
-    <row r="109" spans="6:13" ht="15">
+    <row r="109" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F109" s="16"/>
       <c r="M109" s="16"/>
     </row>
-    <row r="110" spans="6:13" ht="15">
+    <row r="110" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F110" s="16"/>
       <c r="M110" s="16"/>
     </row>
-    <row r="111" spans="6:13" ht="15">
+    <row r="111" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F111" s="16"/>
       <c r="M111" s="16"/>
     </row>
-    <row r="112" spans="6:13" ht="15">
+    <row r="112" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F112" s="16"/>
       <c r="M112" s="16"/>
     </row>
-    <row r="113" spans="6:13" ht="15">
+    <row r="113" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F113" s="16"/>
       <c r="M113" s="16"/>
     </row>
-    <row r="114" spans="6:13" ht="15">
+    <row r="114" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M114" s="16"/>
     </row>
-    <row r="115" spans="6:13" ht="15">
+    <row r="115" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M115" s="16"/>
     </row>
-    <row r="116" spans="6:13" ht="15">
+    <row r="116" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M116" s="16"/>
     </row>
-    <row r="117" spans="6:13" ht="15">
+    <row r="117" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F117" s="16"/>
       <c r="M117" s="16"/>
     </row>
-    <row r="118" spans="6:13" ht="15">
+    <row r="118" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F118" s="16"/>
       <c r="M118" s="16"/>
     </row>
-    <row r="119" spans="6:13" ht="15">
+    <row r="119" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F119" s="16"/>
       <c r="M119" s="16"/>
     </row>
-    <row r="120" spans="6:13" ht="15">
+    <row r="120" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F120" s="16"/>
       <c r="M120" s="16"/>
     </row>
-    <row r="121" spans="6:13" ht="15">
+    <row r="121" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M121" s="16"/>
     </row>
-    <row r="122" spans="6:13" ht="15">
+    <row r="122" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M122" s="16"/>
     </row>
-    <row r="123" spans="6:13" ht="15">
+    <row r="123" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M123" s="16"/>
     </row>
-    <row r="124" spans="6:13" ht="15">
+    <row r="124" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M124" s="16"/>
     </row>
-    <row r="125" spans="6:13" ht="15">
+    <row r="125" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M125" s="16"/>
     </row>
-    <row r="126" spans="6:13" ht="15">
+    <row r="126" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M126" s="16"/>
     </row>
-    <row r="127" spans="6:13" ht="15">
+    <row r="127" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M127" s="16"/>
     </row>
-    <row r="128" spans="6:13" ht="15">
+    <row r="128" spans="6:13" x14ac:dyDescent="0.25">
       <c r="M128" s="16"/>
     </row>
-    <row r="129" spans="13:13" ht="15">
+    <row r="129" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M129" s="16"/>
     </row>
-    <row r="130" spans="13:13" ht="15">
+    <row r="130" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M130" s="16"/>
     </row>
-    <row r="131" spans="13:13" ht="15">
+    <row r="131" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M131" s="16"/>
     </row>
-    <row r="132" spans="13:13" ht="15">
+    <row r="132" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M132" s="16"/>
     </row>
-    <row r="133" spans="13:13" ht="15">
+    <row r="133" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M133" s="16"/>
     </row>
-    <row r="134" spans="13:13" ht="15">
+    <row r="134" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M134" s="16"/>
     </row>
-    <row r="135" spans="13:13" ht="15">
+    <row r="135" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M135" s="16"/>
     </row>
-    <row r="136" spans="13:13" ht="15">
+    <row r="136" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M136" s="16"/>
     </row>
-    <row r="137" spans="13:13" ht="15">
+    <row r="137" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M137" s="16"/>
     </row>
-    <row r="138" spans="13:13" ht="15">
+    <row r="138" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M138" s="16"/>
     </row>
-    <row r="142" spans="13:13" ht="15">
+    <row r="142" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M142" s="16"/>
     </row>
-    <row r="143" spans="13:13" ht="15">
+    <row r="143" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M143" s="16"/>
     </row>
-    <row r="144" spans="13:13" ht="15">
+    <row r="144" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M144" s="16"/>
     </row>
-    <row r="145" spans="13:13" ht="15">
+    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M145" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G77" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}">
     <filterColumn colId="0">
       <filters>
-        <filter val="Inverter"/>
+        <filter val="Solar"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3235,6 +3385,30 @@
     <hyperlink ref="H46:H52" r:id="rId2" display="https://i.ibb.co/N2BqyKx/Rentech-5-6.png" xr:uid="{0AE3E508-AADC-4871-B8E8-A8BE2D77B813}"/>
     <hyperlink ref="H38" r:id="rId3" xr:uid="{7E430A18-0B09-47BD-8436-95CDF5D784DB}"/>
     <hyperlink ref="H39:H43" r:id="rId4" display="https://thecoolguys.co.za/wp-content/uploads/2022/03/3kva-1.png" xr:uid="{A68A78BA-2918-4268-9449-0F7F842D2D78}"/>
+    <hyperlink ref="H3" r:id="rId5" xr:uid="{A86C83CB-A1DF-4607-BA87-E4F48A5E4DE3}"/>
+    <hyperlink ref="H4" r:id="rId6" xr:uid="{D8C75A90-4846-416E-81BB-841E1E5CDE1D}"/>
+    <hyperlink ref="H5" r:id="rId7" xr:uid="{3AC7B491-D464-4C63-BCE2-8599BDA84073}"/>
+    <hyperlink ref="H6" r:id="rId8" xr:uid="{FA20EEC6-7749-4D00-B182-BFDA596F8719}"/>
+    <hyperlink ref="H7" r:id="rId9" xr:uid="{27CB33F9-9D0A-4FC9-92D6-856D48304F22}"/>
+    <hyperlink ref="H8" r:id="rId10" xr:uid="{B2A9E059-E3A9-422B-BAAC-FB6FEEEE9182}"/>
+    <hyperlink ref="H9" r:id="rId11" xr:uid="{3AD64474-A396-410F-A004-6F42690E8A47}"/>
+    <hyperlink ref="H10" r:id="rId12" xr:uid="{A23ECC94-3A1D-4242-8FB5-9E01B5808D3E}"/>
+    <hyperlink ref="H11" r:id="rId13" xr:uid="{1A51B61D-8ABF-40E0-9440-62FAE3882DAF}"/>
+    <hyperlink ref="H12" r:id="rId14" xr:uid="{38A3A542-19AE-496F-905F-D3DB9B4BB4AF}"/>
+    <hyperlink ref="H13" r:id="rId15" xr:uid="{9D340E53-100A-4A32-A7A5-06D761808123}"/>
+    <hyperlink ref="H14" r:id="rId16" xr:uid="{35900E64-C727-4B82-89E2-355BD0D384C0}"/>
+    <hyperlink ref="H15" r:id="rId17" xr:uid="{A43B6A52-AF77-4ACA-A289-F8B30020DA95}"/>
+    <hyperlink ref="H16" r:id="rId18" xr:uid="{64D6A6B1-A86D-4D6B-96A8-AE2B01A2B40E}"/>
+    <hyperlink ref="H22" r:id="rId19" xr:uid="{CEC57FC4-0E2A-466F-AB9B-D44513B99E88}"/>
+    <hyperlink ref="H20" r:id="rId20" xr:uid="{EC18691B-4672-40B2-98EE-EDD49AFA99AC}"/>
+    <hyperlink ref="H66" r:id="rId21" xr:uid="{48F5B808-CDB6-4901-AA75-B5A1F75D8605}"/>
+    <hyperlink ref="H67" r:id="rId22" xr:uid="{2C9857CA-83A8-4032-B756-3CCADC34DA36}"/>
+    <hyperlink ref="H68" r:id="rId23" xr:uid="{FEC84534-633F-432E-958E-2FFCAD74F281}"/>
+    <hyperlink ref="H69" r:id="rId24" xr:uid="{8A103B14-5535-43C1-8376-5B8082EAD0E2}"/>
+    <hyperlink ref="H70" r:id="rId25" xr:uid="{7EE83384-78FA-4DEF-A649-BE10D7BCF9A5}"/>
+    <hyperlink ref="H71" r:id="rId26" xr:uid="{050C74F1-EFE4-411A-9B74-64A7DCA46883}"/>
+    <hyperlink ref="H72" r:id="rId27" xr:uid="{0D6C6FD6-C9B7-432D-8DA5-E9409D65EA99}"/>
+    <hyperlink ref="H73" r:id="rId28" xr:uid="{117E40C1-9636-4237-AAF3-A2C55A24E19C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3249,7 +3423,7 @@
       <selection activeCell="I107" sqref="I107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
@@ -3260,7 +3434,7 @@
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -3280,7 +3454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="2" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -3304,7 +3478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="3" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -3328,7 +3502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -3352,7 +3526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="5" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -3376,7 +3550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="6" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3400,7 +3574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="7" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3424,7 +3598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="8" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3448,7 +3622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="9" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3472,7 +3646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="10" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -3496,7 +3670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="11" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
@@ -3520,7 +3694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="12" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -3544,7 +3718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="13" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3568,7 +3742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="14" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
@@ -3592,7 +3766,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="15" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>8</v>
       </c>
@@ -3616,7 +3790,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="16" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
@@ -3640,7 +3814,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="17" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -3664,7 +3838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="18" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -3675,10 +3849,10 @@
         <v>40</v>
       </c>
       <c r="D18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
       </c>
       <c r="F18" s="14">
         <f>RBCPriceGenerator!B24</f>
@@ -3688,21 +3862,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="19" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" t="s">
-        <v>47</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>49</v>
-      </c>
-      <c r="E19" t="s">
-        <v>50</v>
       </c>
       <c r="F19" s="14">
         <f>RBCPriceGenerator!B19</f>
@@ -3712,21 +3886,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="20" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
         <v>47</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" t="s">
-        <v>49</v>
-      </c>
       <c r="E20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="14">
         <f>RBCPriceGenerator!B20</f>
@@ -3736,55 +3910,55 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="21" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
         <v>54</v>
       </c>
-      <c r="B21" t="s">
-        <v>54</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>57</v>
       </c>
       <c r="F21" s="14">
         <f>RBCPriceGenerator!B21</f>
         <v>362.25</v>
       </c>
       <c r="G21" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" hidden="1" thickBot="1">
-      <c r="A22" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
       </c>
       <c r="F22" s="14">
         <f>RBCPriceGenerator!B22</f>
         <v>675.05</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" hidden="1" thickBot="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -3795,10 +3969,10 @@
         <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F23" s="14">
         <f>RBCPriceGenerator!B25</f>
@@ -3808,7 +3982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="24" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -3819,10 +3993,10 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F24" s="14">
         <f>RBCPriceGenerator!B26</f>
@@ -3832,7 +4006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="25" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3843,10 +4017,10 @@
         <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F25" s="14">
         <f>RBCPriceGenerator!B27</f>
@@ -3856,21 +4030,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="26" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>38</v>
       </c>
       <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
         <v>65</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>66</v>
       </c>
       <c r="F26" s="14">
         <f>RBCPriceGenerator!B28</f>
@@ -3880,21 +4054,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="27" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
         <v>67</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>68</v>
-      </c>
-      <c r="E27" t="s">
-        <v>69</v>
       </c>
       <c r="F27" s="14">
         <f>RBCPriceGenerator!B29</f>
@@ -3904,21 +4078,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="28" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>38</v>
       </c>
       <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
         <v>64</v>
       </c>
-      <c r="C28" t="s">
-        <v>65</v>
-      </c>
       <c r="D28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F28" s="14">
         <f>RBCPriceGenerator!B30</f>
@@ -3928,21 +4102,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="29" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" t="s">
         <v>67</v>
       </c>
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
       <c r="E29" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F29" s="14">
         <f>RBCPriceGenerator!B31</f>
@@ -3952,21 +4126,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="30" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>40</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="14">
         <f>RBCPriceGenerator!B32</f>
@@ -3976,21 +4150,21 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="31" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C31" t="s">
         <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="14">
         <f>RBCPriceGenerator!B33</f>
@@ -4000,93 +4174,93 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
         <v>74</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>75</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>76</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>77</v>
-      </c>
-      <c r="E32" t="s">
-        <v>78</v>
       </c>
       <c r="F32" s="14">
         <f>RBCPriceGenerator!B2</f>
         <v>4357.3499999999995</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15" thickBot="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
         <v>74</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
       <c r="D33" t="s">
+        <v>80</v>
+      </c>
+      <c r="E33" t="s">
         <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
       </c>
       <c r="F33" s="14">
         <f>RBCPriceGenerator!B3</f>
         <v>6899.9999999999991</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
       <c r="D34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F34" s="14">
         <f>RBCPriceGenerator!B4</f>
         <v>12822.499999999998</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="15" thickBot="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C35" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="F35" s="4">
         <f>RBCPriceGenerator!B34</f>
@@ -4096,21 +4270,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="15" thickBot="1">
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C36" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F36" s="4">
         <f>RBCPriceGenerator!B35</f>
@@ -4120,21 +4294,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="15" thickBot="1">
+    <row r="37" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>75</v>
-      </c>
       <c r="C37" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F37" s="4">
         <f>RBCPriceGenerator!B36</f>
@@ -4144,213 +4318,213 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" thickBot="1">
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C38" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E38" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="F38" s="7">
         <f>RBCPriceGenerator!B41</f>
         <v>8625</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="15" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C39" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="7">
         <f>RBCPriceGenerator!B42</f>
         <v>16099.999999999998</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="15" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>75</v>
-      </c>
       <c r="C40" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E40" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="E40" s="6" t="s">
-        <v>98</v>
       </c>
       <c r="F40" s="7">
         <f>RBCPriceGenerator!B43</f>
         <v>19544.25</v>
       </c>
       <c r="G40" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="15" thickBot="1">
-      <c r="A41" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="E41" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>101</v>
       </c>
       <c r="F41" s="7">
         <f>RBCPriceGenerator!B44</f>
         <v>26449.999999999996</v>
       </c>
       <c r="G41" s="6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="6" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="15" thickBot="1">
-      <c r="A42" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>103</v>
       </c>
       <c r="F42" s="7">
         <f>RBCPriceGenerator!B45</f>
         <v>27542.499999999996</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="15" thickBot="1">
-      <c r="A43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>100</v>
-      </c>
       <c r="E43" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F43" s="7">
         <f>RBCPriceGenerator!B46</f>
         <v>34477</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="15" thickBot="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C44" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>105</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>106</v>
       </c>
       <c r="F44" s="9">
         <f>RBCPriceGenerator!B47</f>
         <v>4038.7999999999997</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="15" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C45" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>108</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="F45" s="9">
         <f>RBCPriceGenerator!B48</f>
         <v>4401.0499999999993</v>
       </c>
       <c r="G45" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E46" s="8" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="15" thickBot="1">
-      <c r="A46" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" s="8" t="s">
-        <v>111</v>
       </c>
       <c r="F46" s="9">
         <f>RBCPriceGenerator!B49</f>
@@ -4360,453 +4534,453 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="15" thickBot="1">
+    <row r="47" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C47" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F47" s="9">
         <f>RBCPriceGenerator!B50</f>
         <v>15746.949999999999</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="15" thickBot="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B48" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C48" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E48" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F48" s="9">
         <f>RBCPriceGenerator!B51</f>
         <v>17480</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="15" thickBot="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C49" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D49" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
         <v>115</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>116</v>
       </c>
       <c r="F49" s="9">
         <f>RBCPriceGenerator!B55</f>
         <v>15864.249999999998</v>
       </c>
       <c r="G49" s="8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="8" t="s">
         <v>117</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="15" thickBot="1">
-      <c r="A50" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>118</v>
       </c>
       <c r="F50" s="9">
         <f>RBCPriceGenerator!B56</f>
         <v>40340.85</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" ht="15" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D51" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="E51" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F51" s="9">
         <f>RBCPriceGenerator!B57</f>
         <v>48275.85</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="15" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>75</v>
-      </c>
       <c r="C52" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="D52" s="8" t="s">
-        <v>115</v>
-      </c>
       <c r="E52" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F52" s="9">
         <f>RBCPriceGenerator!B58</f>
         <v>67286.5</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="15" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C53" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="D53" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>122</v>
       </c>
       <c r="F53" s="2">
         <f>RBCPriceGenerator!B59</f>
         <v>14614.199999999999</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="15" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C54" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F54" s="2">
         <f>RBCPriceGenerator!B60</f>
         <v>16660.05</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="15" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B55" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C55" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="D55" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>125</v>
       </c>
       <c r="F55" s="2">
         <f>RBCPriceGenerator!B61</f>
         <v>27958.799999999999</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="15" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C56" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D56" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>127</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>128</v>
       </c>
       <c r="F56" s="2">
         <f>RBCPriceGenerator!B62</f>
         <v>6481.4</v>
       </c>
       <c r="G56" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="10" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="15" thickBot="1">
-      <c r="A57" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D57" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>130</v>
       </c>
       <c r="F57" s="2">
         <f>RBCPriceGenerator!B63</f>
         <v>8204.0999999999985</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="15" thickBot="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B58" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C58" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E58" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>132</v>
       </c>
       <c r="F58" s="2">
         <f>RBCPriceGenerator!B64</f>
         <v>13881.65</v>
       </c>
       <c r="G58" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E59" s="10" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
-      <c r="A59" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D59" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>134</v>
       </c>
       <c r="F59" s="2">
         <f>RBCPriceGenerator!B65</f>
         <v>15917.15</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="C60" s="10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F60" s="2">
         <f>RBCPriceGenerator!B66</f>
         <v>26767.399999999998</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B61" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C61" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E61" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>137</v>
       </c>
       <c r="F61" s="12">
         <f>RBCPriceGenerator!B70</f>
         <v>10804.25</v>
       </c>
       <c r="G61" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
-      <c r="A62" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C62" s="11" t="s">
+      <c r="D62" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E62" s="11" t="s">
         <v>139</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="F62" s="12">
         <f>RBCPriceGenerator!B71</f>
         <v>11034.25</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B63" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C63" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E63" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="D63" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E63" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="F63" s="12">
         <f>RBCPriceGenerator!B72</f>
         <v>21154.25</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="5" customFormat="1" ht="15" thickBot="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B64" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="B64" s="11" t="s">
-        <v>75</v>
-      </c>
       <c r="C64" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F64" s="12">
         <f>RBCPriceGenerator!B73</f>
         <v>25288.499999999996</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" s="5" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
+        <v>143</v>
+      </c>
+      <c r="B65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C65" t="s">
         <v>144</v>
       </c>
-      <c r="B65" t="s">
-        <v>144</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>145</v>
       </c>
-      <c r="D65" t="s">
+      <c r="E65" t="s">
         <v>146</v>
-      </c>
-      <c r="E65" t="s">
-        <v>147</v>
       </c>
       <c r="F65" s="14">
         <f>RBCPriceGenerator!B13</f>
@@ -4816,21 +4990,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
+    <row r="66" spans="1:7" s="5" customFormat="1" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C66" t="s">
+        <v>147</v>
+      </c>
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" t="s">
         <v>148</v>
-      </c>
-      <c r="D66" t="s">
-        <v>146</v>
-      </c>
-      <c r="E66" t="s">
-        <v>149</v>
       </c>
       <c r="F66" s="14">
         <f>RBCPriceGenerator!B14</f>
@@ -4840,21 +5014,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="67" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C67" t="s">
+        <v>149</v>
+      </c>
+      <c r="D67" t="s">
         <v>150</v>
       </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>151</v>
-      </c>
-      <c r="E67" t="s">
-        <v>152</v>
       </c>
       <c r="F67" s="14">
         <f>RBCPriceGenerator!B15</f>
@@ -4864,21 +5038,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="68" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C68" t="s">
+        <v>152</v>
+      </c>
+      <c r="D68" t="s">
+        <v>150</v>
+      </c>
+      <c r="E68" t="s">
         <v>153</v>
-      </c>
-      <c r="D68" t="s">
-        <v>151</v>
-      </c>
-      <c r="E68" t="s">
-        <v>154</v>
       </c>
       <c r="F68" s="14">
         <f>RBCPriceGenerator!B16</f>
@@ -4888,21 +5062,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="69" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C69" t="s">
+        <v>154</v>
+      </c>
+      <c r="D69" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" t="s">
         <v>155</v>
-      </c>
-      <c r="D69" t="s">
-        <v>151</v>
-      </c>
-      <c r="E69" t="s">
-        <v>156</v>
       </c>
       <c r="F69" s="14">
         <f>RBCPriceGenerator!B17</f>
@@ -4912,21 +5086,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="70" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C70" t="s">
+        <v>149</v>
+      </c>
+      <c r="D70" t="s">
         <v>150</v>
       </c>
-      <c r="D70" t="s">
-        <v>151</v>
-      </c>
       <c r="E70" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F70" s="14">
         <f>RBCPriceGenerator!B18</f>
@@ -4936,106 +5110,106 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="71" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C71" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="D71" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>160</v>
-      </c>
-      <c r="E71" s="10" t="s">
-        <v>161</v>
       </c>
       <c r="F71" s="2">
         <f>RBCPriceGenerator!B67</f>
         <v>35255.549999999996</v>
       </c>
       <c r="G71" s="10" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C72" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="15" hidden="1" thickBot="1">
-      <c r="A72" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C72" s="10" t="s">
+      <c r="D72" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>165</v>
       </c>
       <c r="F72" s="2">
         <f>RBCPriceGenerator!B68</f>
         <v>44369.299999999996</v>
       </c>
       <c r="G72" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="15" hidden="1" thickBot="1">
-      <c r="A73" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="10" t="s">
+      <c r="D73" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E73" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="D73" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>168</v>
       </c>
       <c r="F73" s="2">
         <f>RBCPriceGenerator!B69</f>
         <v>45158.2</v>
       </c>
       <c r="G73" s="10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="15" hidden="1" thickBot="1">
-      <c r="C74" t="s">
-        <v>170</v>
       </c>
       <c r="F74" s="12">
         <f>RBCPriceGenerator!B74</f>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="75" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F75" s="12">
         <f>RBCPriceGenerator!B75</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="76" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F76" s="12">
         <f>RBCPriceGenerator!B76</f>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="15" hidden="1" thickBot="1">
+    <row r="77" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F77" s="12">
         <f>RBCPriceGenerator!B77</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f>A$35</f>
         <v>Inverter</v>
@@ -5061,10 +5235,10 @@
         <v>10471.9</v>
       </c>
       <c r="G81" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f>A$4</f>
         <v>Battery</v>
@@ -5090,10 +5264,10 @@
         <v>13549.3</v>
       </c>
       <c r="G82" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f>A$65</f>
         <v>Solar</v>
@@ -5119,19 +5293,19 @@
         <v>15525</v>
       </c>
       <c r="G83" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F84" s="16">
         <f>SUBTOTAL(9,F81:F83)</f>
         <v>39546.199999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:7">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F85" s="16"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" ref="A86:B86" si="4">A$35</f>
         <v>Inverter</v>
@@ -5157,10 +5331,10 @@
         <v>10471.9</v>
       </c>
       <c r="G86" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f>A$4</f>
         <v>Battery</v>
@@ -5186,10 +5360,10 @@
         <v>27098.6</v>
       </c>
       <c r="G87" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f>A$65</f>
         <v>Solar</v>
@@ -5215,19 +5389,19 @@
         <v>20700</v>
       </c>
       <c r="G88" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F89" s="16">
         <f>SUBTOTAL(9,F86:F88)</f>
         <v>58270.5</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F90" s="16"/>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" ref="A91:D91" si="8">A$36</f>
         <v>Inverter</v>
@@ -5253,10 +5427,10 @@
         <v>15234.05</v>
       </c>
       <c r="G91" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" ref="A92:D92" si="9">A$7</f>
         <v>Battery</v>
@@ -5282,10 +5456,10 @@
         <v>26444.249999999996</v>
       </c>
       <c r="G92" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" ref="A93:D93" si="10">A$70</f>
         <v>Solar</v>
@@ -5311,22 +5485,22 @@
         <v>29071.999999999996</v>
       </c>
       <c r="G93" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F94" s="16">
         <f>SUBTOTAL(9,F91:F93)</f>
         <v>70750.299999999988</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F95" s="16"/>
     </row>
-    <row r="96" spans="1:7">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="F96" s="16"/>
     </row>
-    <row r="97" spans="1:14">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" ref="A97:D97" si="11">A$36</f>
         <v>Inverter</v>
@@ -5352,10 +5526,10 @@
         <v>15234.05</v>
       </c>
       <c r="G97" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" ref="A98:D98" si="12">A$7</f>
         <v>Battery</v>
@@ -5381,10 +5555,10 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G98" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" ref="A99:D99" si="13">A$70</f>
         <v>Solar</v>
@@ -5410,22 +5584,22 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G99" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F100" s="16">
         <f>SUBTOTAL(9,F97:F99)</f>
         <v>104462.54999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:14">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F101" s="16"/>
     </row>
-    <row r="102" spans="1:14">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F102" s="16"/>
     </row>
-    <row r="103" spans="1:14">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" ref="A103:D103" si="14">A$37</f>
         <v>Inverter</v>
@@ -5451,10 +5625,10 @@
         <v>41260.85</v>
       </c>
       <c r="G103" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" ref="A104:D104" si="15">A$7</f>
         <v>Battery</v>
@@ -5480,10 +5654,10 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G104" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" ref="A105:D105" si="16">A$70</f>
         <v>Solar</v>
@@ -5509,10 +5683,10 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G105" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F106" s="16">
         <f>SUBTOTAL(9,F103:F105)</f>
         <v>130489.34999999998</v>
@@ -5542,10 +5716,10 @@
         <v>0</v>
       </c>
       <c r="N106" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F107" s="16"/>
       <c r="H107">
         <f>H$4</f>
@@ -5572,10 +5746,10 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F108" s="16"/>
       <c r="H108">
         <f>H$65</f>
@@ -5602,17 +5776,17 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F109" s="16"/>
       <c r="M109" s="16">
         <f>SUBTOTAL(9,M106:M108)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:14">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" ref="A110:D110" si="21">A$37</f>
         <v>Inverter</v>
@@ -5638,11 +5812,11 @@
         <v>41260.85</v>
       </c>
       <c r="G110" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M110" s="16"/>
     </row>
-    <row r="111" spans="1:14">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" ref="A111:D111" si="22">A$7</f>
         <v>Battery</v>
@@ -5668,7 +5842,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G111" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H111">
         <f t="shared" ref="H111:I111" si="23">H$35</f>
@@ -5695,10 +5869,10 @@
         <v>0</v>
       </c>
       <c r="N111" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" ref="A112:D112" si="25">A$70</f>
         <v>Solar</v>
@@ -5724,7 +5898,7 @@
         <v>43607.999999999993</v>
       </c>
       <c r="G112" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H112">
         <f>H$4</f>
@@ -5751,10 +5925,10 @@
         <v>0</v>
       </c>
       <c r="N112" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F113" s="16">
         <f>SUBTOTAL(9,F110:F112)</f>
         <v>137757.34999999998</v>
@@ -5784,19 +5958,19 @@
         <v>0</v>
       </c>
       <c r="N113" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M114" s="16">
         <f>SUBTOTAL(9,M111:M113)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:14">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M115" s="16"/>
     </row>
-    <row r="116" spans="1:14">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H116">
         <f t="shared" ref="H116:K116" si="28">H$36</f>
         <v>0</v>
@@ -5822,10 +5996,10 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" ref="A117:D117" si="29">A$37</f>
         <v>Inverter</v>
@@ -5851,7 +6025,7 @@
         <v>41260.85</v>
       </c>
       <c r="G117" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H117">
         <f t="shared" ref="H117:K117" si="30">H$7</f>
@@ -5878,10 +6052,10 @@
         <v>0</v>
       </c>
       <c r="N117" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" ref="A118:D118" si="31">A$7</f>
         <v>Battery</v>
@@ -5907,7 +6081,7 @@
         <v>79332.749999999985</v>
       </c>
       <c r="G118" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H118">
         <f t="shared" ref="H118:K118" si="32">H$70</f>
@@ -5934,10 +6108,10 @@
         <v>0</v>
       </c>
       <c r="N118" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="119" spans="1:14">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" ref="A119:D119" si="33">A$70</f>
         <v>Solar</v>
@@ -5963,24 +6137,24 @@
         <v>50875.999999999993</v>
       </c>
       <c r="G119" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M119" s="16">
         <f>SUBTOTAL(9,M116:M118)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:14">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="F120" s="16">
         <f>SUBTOTAL(9,F117:F119)</f>
         <v>171469.59999999998</v>
       </c>
       <c r="M120" s="16"/>
     </row>
-    <row r="121" spans="1:14">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M121" s="16"/>
     </row>
-    <row r="122" spans="1:14">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H122">
         <f t="shared" ref="H122:K122" si="34">H$36</f>
         <v>0</v>
@@ -6006,10 +6180,10 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H123">
         <f t="shared" ref="H123:K123" si="35">H$7</f>
         <v>0</v>
@@ -6035,10 +6209,10 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H124">
         <f t="shared" ref="H124:K124" si="36">H$70</f>
         <v>0</v>
@@ -6064,22 +6238,22 @@
         <v>0</v>
       </c>
       <c r="N124" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M125" s="16">
         <f>SUBTOTAL(9,M122:M124)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:14">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M126" s="16"/>
     </row>
-    <row r="127" spans="1:14">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M127" s="16"/>
     </row>
-    <row r="128" spans="1:14">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H128">
         <f t="shared" ref="H128:K128" si="37">H$37</f>
         <v>0</v>
@@ -6105,10 +6279,10 @@
         <v>0</v>
       </c>
       <c r="N128" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="129" spans="8:14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H129">
         <f t="shared" ref="H129:K129" si="38">H$7</f>
         <v>0</v>
@@ -6134,10 +6308,10 @@
         <v>0</v>
       </c>
       <c r="N129" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="130" spans="8:14">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H130">
         <f t="shared" ref="H130:K130" si="39">H$70</f>
         <v>0</v>
@@ -6163,25 +6337,25 @@
         <v>0</v>
       </c>
       <c r="N130" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="131" spans="8:14">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="8:14" x14ac:dyDescent="0.25">
       <c r="M131" s="16">
         <f>SUBTOTAL(9,M128:M130)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="8:14">
+    <row r="132" spans="8:14" x14ac:dyDescent="0.25">
       <c r="M132" s="16"/>
     </row>
-    <row r="133" spans="8:14">
+    <row r="133" spans="8:14" x14ac:dyDescent="0.25">
       <c r="M133" s="16"/>
     </row>
-    <row r="134" spans="8:14">
+    <row r="134" spans="8:14" x14ac:dyDescent="0.25">
       <c r="M134" s="16"/>
     </row>
-    <row r="135" spans="8:14">
+    <row r="135" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H135">
         <f t="shared" ref="H135:K135" si="40">H$37</f>
         <v>0</v>
@@ -6207,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="N135" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="136" spans="8:14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="136" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H136">
         <f t="shared" ref="H136:K136" si="41">H$7</f>
         <v>0</v>
@@ -6236,10 +6410,10 @@
         <v>0</v>
       </c>
       <c r="N136" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="137" spans="8:14">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="137" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H137">
         <f t="shared" ref="H137:K137" si="42">H$70</f>
         <v>0</v>
@@ -6265,16 +6439,16 @@
         <v>0</v>
       </c>
       <c r="N137" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="138" spans="8:14">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="138" spans="8:14" x14ac:dyDescent="0.25">
       <c r="M138" s="16">
         <f>SUBTOTAL(9,M135:M137)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="8:14">
+    <row r="142" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H142">
         <f t="shared" ref="H142:K142" si="43">H$37</f>
         <v>0</v>
@@ -6300,10 +6474,10 @@
         <v>0</v>
       </c>
       <c r="N142" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="143" spans="8:14">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H143">
         <f t="shared" ref="H143:K143" si="44">H$7</f>
         <v>0</v>
@@ -6329,10 +6503,10 @@
         <v>0</v>
       </c>
       <c r="N143" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="144" spans="8:14">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H144">
         <f t="shared" ref="H144:K144" si="45">H$70</f>
         <v>0</v>
@@ -6358,10 +6532,10 @@
         <v>0</v>
       </c>
       <c r="N144" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="145" spans="13:13">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="145" spans="13:13" x14ac:dyDescent="0.25">
       <c r="M145" s="16">
         <f>SUBTOTAL(9,M142:M144)</f>
         <v>0</v>
@@ -6387,18 +6561,18 @@
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>3789</f>
         <v>3789</v>
@@ -6408,7 +6582,7 @@
         <v>4357.3499999999995</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>6000</f>
         <v>6000</v>
@@ -6418,7 +6592,7 @@
         <v>6899.9999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>11150</f>
         <v>11150</v>
@@ -6428,7 +6602,7 @@
         <v>12822.499999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>9786</f>
         <v>9786</v>
@@ -6438,7 +6612,7 @@
         <v>11253.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>6995</f>
         <v>6995</v>
@@ -6448,7 +6622,7 @@
         <v>8044.2499999999991</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>11782</f>
         <v>11782</v>
@@ -6458,7 +6632,7 @@
         <v>13549.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>18170</f>
         <v>18170</v>
@@ -6468,7 +6642,7 @@
         <v>20895.5</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>18918</f>
         <v>18918</v>
@@ -6478,7 +6652,7 @@
         <v>21755.699999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>22995</f>
         <v>22995</v>
@@ -6488,7 +6662,7 @@
         <v>26444.249999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>3356</f>
         <v>3356</v>
@@ -6498,7 +6672,7 @@
         <v>3859.3999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>2608</f>
         <v>2608</v>
@@ -6508,7 +6682,7 @@
         <v>2999.2</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>2250</f>
         <v>2250</v>
@@ -6518,7 +6692,7 @@
         <v>2587.5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <f>2986</f>
         <v>2986</v>
@@ -6528,7 +6702,7 @@
         <v>3433.8999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>3269</f>
         <v>3269</v>
@@ -6538,7 +6712,7 @@
         <v>3759.35</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>3177</f>
         <v>3177</v>
@@ -6548,7 +6722,7 @@
         <v>3653.5499999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>2798</f>
         <v>2798</v>
@@ -6558,7 +6732,7 @@
         <v>3217.7</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>3160</f>
         <v>3160</v>
@@ -6568,7 +6742,7 @@
         <v>3633.9999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>147</f>
         <v>147</v>
@@ -6578,7 +6752,7 @@
         <v>169.04999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>221</f>
         <v>221</v>
@@ -6588,7 +6762,7 @@
         <v>254.14999999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>315</f>
         <v>315</v>
@@ -6598,7 +6772,7 @@
         <v>362.25</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>587</f>
         <v>587</v>
@@ -6608,7 +6782,7 @@
         <v>675.05</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>4500</f>
         <v>4500</v>
@@ -6618,7 +6792,7 @@
         <v>5175</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>7000</f>
         <v>7000</v>
@@ -6628,7 +6802,7 @@
         <v>8049.9999999999991</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>12000</f>
         <v>12000</v>
@@ -6638,7 +6812,7 @@
         <v>13799.999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>13000</f>
         <v>13000</v>
@@ -6648,7 +6822,7 @@
         <v>14949.999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1">
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="15">
         <f>21000</f>
         <v>21000</v>
@@ -6658,7 +6832,7 @@
         <v>24149.999999999996</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>15000</v>
       </c>
@@ -6667,7 +6841,7 @@
         <v>17250</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>24093</v>
       </c>
@@ -6676,7 +6850,7 @@
         <v>27706.949999999997</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>22000</v>
       </c>
@@ -6685,7 +6859,7 @@
         <v>25299.999999999996</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1">
+    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>28693</f>
         <v>28693</v>
@@ -6695,7 +6869,7 @@
         <v>32996.949999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1">
+    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="15">
         <f>30000</f>
         <v>30000</v>
@@ -6705,7 +6879,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15" thickBot="1">
+    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="15">
         <f>36000</f>
         <v>36000</v>
@@ -6715,7 +6889,7 @@
         <v>41400</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>9106</f>
         <v>9106</v>
@@ -6725,7 +6899,7 @@
         <v>10471.9</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1">
+    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>13247</f>
         <v>13247</v>
@@ -6735,7 +6909,7 @@
         <v>15234.05</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <f>35879</f>
         <v>35879</v>
@@ -6745,7 +6919,7 @@
         <v>41260.85</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>17249</f>
         <v>17249</v>
@@ -6755,7 +6929,7 @@
         <v>19836.349999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>26219</f>
         <v>26219</v>
@@ -6765,7 +6939,7 @@
         <v>30151.85</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3009</v>
       </c>
@@ -6774,7 +6948,7 @@
         <v>3460.35</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>5519</f>
         <v>5519</v>
@@ -6784,7 +6958,7 @@
         <v>6346.8499999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>7500</f>
         <v>7500</v>
@@ -6794,7 +6968,7 @@
         <v>8625</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>14000</f>
         <v>14000</v>
@@ -6804,7 +6978,7 @@
         <v>16099.999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>16995</f>
         <v>16995</v>
@@ -6814,7 +6988,7 @@
         <v>19544.25</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>23000</f>
         <v>23000</v>
@@ -6824,7 +6998,7 @@
         <v>26449.999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>23950</f>
         <v>23950</v>
@@ -6834,7 +7008,7 @@
         <v>27542.499999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>29980</f>
         <v>29980</v>
@@ -6844,7 +7018,7 @@
         <v>34477</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>3512</f>
         <v>3512</v>
@@ -6854,7 +7028,7 @@
         <v>4038.7999999999997</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>3827</f>
         <v>3827</v>
@@ -6864,7 +7038,7 @@
         <v>4401.0499999999993</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>6780</f>
         <v>6780</v>
@@ -6874,7 +7048,7 @@
         <v>7796.9999999999991</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>13693</f>
         <v>13693</v>
@@ -6884,7 +7058,7 @@
         <v>15746.949999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>15200</f>
         <v>15200</v>
@@ -6894,7 +7068,7 @@
         <v>17480</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>6990</f>
         <v>6990</v>
@@ -6904,7 +7078,7 @@
         <v>8038.4999999999991</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <f>16500</f>
         <v>16500</v>
@@ -6914,7 +7088,7 @@
         <v>18975</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <f>22995</f>
         <v>22995</v>
@@ -6924,7 +7098,7 @@
         <v>26444.249999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <f>13795</f>
         <v>13795</v>
@@ -6934,7 +7108,7 @@
         <v>15864.249999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <f>35079</f>
         <v>35079</v>
@@ -6944,7 +7118,7 @@
         <v>40340.85</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <f>41979</f>
         <v>41979</v>
@@ -6954,7 +7128,7 @@
         <v>48275.85</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>58510</f>
         <v>58510</v>
@@ -6964,7 +7138,7 @@
         <v>67286.5</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <f>12708</f>
         <v>12708</v>
@@ -6974,7 +7148,7 @@
         <v>14614.199999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <f>14487</f>
         <v>14487</v>
@@ -6984,7 +7158,7 @@
         <v>16660.05</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <f>24312</f>
         <v>24312</v>
@@ -6994,7 +7168,7 @@
         <v>27958.799999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <f>5636</f>
         <v>5636</v>
@@ -7004,7 +7178,7 @@
         <v>6481.4</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <f>7134</f>
         <v>7134</v>
@@ -7014,7 +7188,7 @@
         <v>8204.0999999999985</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <f>12071</f>
         <v>12071</v>
@@ -7024,7 +7198,7 @@
         <v>13881.65</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <f>13841</f>
         <v>13841</v>
@@ -7034,7 +7208,7 @@
         <v>15917.15</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <f>23276</f>
         <v>23276</v>
@@ -7044,7 +7218,7 @@
         <v>26767.399999999998</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <f>30657</f>
         <v>30657</v>
@@ -7054,7 +7228,7 @@
         <v>35255.549999999996</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <f>38582</f>
         <v>38582</v>
@@ -7064,7 +7238,7 @@
         <v>44369.299999999996</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <f>39268</f>
         <v>39268</v>
@@ -7074,7 +7248,7 @@
         <v>45158.2</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <f>9395</f>
         <v>9395</v>
@@ -7084,7 +7258,7 @@
         <v>10804.25</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <f>9595</f>
         <v>9595</v>
@@ -7094,7 +7268,7 @@
         <v>11034.25</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <f>18395</f>
         <v>18395</v>
@@ -7104,7 +7278,7 @@
         <v>21154.25</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <f>21990</f>
         <v>21990</v>
@@ -7372,9 +7546,28 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FDEAF2-72F6-4DE3-BA2B-74A9F9809E88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FDEAF2-72F6-4DE3-BA2B-74A9F9809E88}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4D44B-BA28-4ECE-9D28-DB5214D251D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4D44B-BA28-4ECE-9D28-DB5214D251D2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="38594f89-c314-49a7-8895-5d17cbb3f834"/>
+    <ds:schemaRef ds:uri="c062e488-6187-499b-9180-094274b6916e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/DatabaseIndividualPricingInputFormat v2.xlsx
+++ b/DatabaseIndividualPricingInputFormat v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://redbrickza-my.sharepoint.com/personal/ezekiel_mokaedi_rbconsult_co_za/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{397845D5-7D5E-44ED-BEA3-9292ED887155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{882A49D1-94E5-4E59-BCD6-2A82FC39189D}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{397845D5-7D5E-44ED-BEA3-9292ED887155}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61E9067E-F322-402D-A8BB-D84881B41F77}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{A38C0819-823B-4194-AA2B-5033FF66305C}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Packages!$A$1:$G$57</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$G$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet 1'!$A$1:$G$27</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="186">
   <si>
     <t>ItemName</t>
   </si>
@@ -67,7 +67,7 @@
     <t>img_url</t>
   </si>
   <si>
-    <t>Product Description</t>
+    <t>Description</t>
   </si>
   <si>
     <t>Battery</t>
@@ -181,7 +181,7 @@
     <t xml:space="preserve">https://i.ibb.co/9sXfd3v/Axitec370-W.png </t>
   </si>
   <si>
-    <t>s</t>
+    <t xml:space="preserve">https://i.ibb.co/zxCRs8d/Des-ORSpec-Axitec370-W.png </t>
   </si>
   <si>
     <t>JA Solar</t>
@@ -244,6 +244,9 @@
     <t>Size-kVA:7.5, EngineSize-Stroke: 4</t>
   </si>
   <si>
+    <t>https://i.ibb.co/42kmFyg/Petrol7-5k-VA-R14-9k.jpg</t>
+  </si>
+  <si>
     <t>Diesel</t>
   </si>
   <si>
@@ -253,220 +256,235 @@
     <t>Size-kVA:7, EngineSize-Stroke: 4</t>
   </si>
   <si>
+    <t>https://i.ibb.co/MPzRSq3/Diesel7k-VA-R27-6.png</t>
+  </si>
+  <si>
+    <t>Inverter</t>
+  </si>
+  <si>
+    <t>Inverters</t>
+  </si>
+  <si>
+    <t>Rentech-Axpert</t>
+  </si>
+  <si>
+    <t>Stand-alone</t>
+  </si>
+  <si>
+    <t>Size-kVA:5.6, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5.6, BatVoltage-V:48</t>
+  </si>
+  <si>
+    <t>SizeGroup:5,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/FK0ty82/Tentech5-6k-VA-R17-4.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/rG3Z1KZ/Des-Rentech5-6k-VA-R17-4.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:5.5, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/3SNsR9N/Petrol5-5k-VA-R13-8.jpg</t>
+  </si>
+  <si>
+    <t>Hybrid</t>
+  </si>
+  <si>
+    <t>Size-kVA:5,InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5, BatVoltage-V:48, MPPTCurrent-A:80</t>
+  </si>
+  <si>
+    <t>SizeGroup:6,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/Y0KkM3P/RCT-Axpert5k-VA-R15-7k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/BGWST2R/Des-Rentech-Axpert5k-VA-R15-7.png</t>
+  </si>
+  <si>
+    <t>Mecer</t>
+  </si>
+  <si>
+    <t>Size-kVA:5, Voltage-V:48, Power-kW:4</t>
+  </si>
+  <si>
+    <t>SizeGroup:3,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/31W0tKZ/Mecer5k-VA-R12-8k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/WHbWBfr/Des-Mecer5k-VA-R12-8.png</t>
+  </si>
+  <si>
+    <t>TheCoolGuys</t>
+  </si>
+  <si>
+    <t>Size-kVA:5, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5, BatVoltage-V:48, MPPTVoltage-VDC:115</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/cNq40GD/TCG5k-VA-R16-1k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SwJ5vSF/Des-TCG5k-VA-R16-1.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:3.5, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/4p6Tjxs/Petrol3-5-KVA-R8-0k.png</t>
+  </si>
+  <si>
+    <t>RCT-AXPERT</t>
+  </si>
+  <si>
+    <t>Size-kVA:3, Voltage-V:48, Power-kW:3, MPPTVoltage-V:430</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/n1CmNTS/RCT-Axpert3k-VA-R10-4k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/wrF2yST/Spec-ORDes-RCT-AXPERT3k-VA-R10-4.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:3, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:2.4, BatVoltage-V:24, MPPTVoltage-VDC:100</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/t25SQL4/TCG3kva-R8-6-K.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/zPN6ykP/Des-TCG3k-VA-R8-6.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:3, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/SrqNKTT/Diesel3k-VA-R17-2.png</t>
+  </si>
+  <si>
+    <t>Rentech-Jagular</t>
+  </si>
+  <si>
+    <t>Size-kVA:2.4, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:1.4, RecLABatVoltage-V:12</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/6r0kNwc/Rentech-Jag2-4k-VA-R4-4k.png</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/MC08H1B/Des-Rentec-Jag2-4k-VA-R4-4k.png</t>
+  </si>
+  <si>
+    <t>Size-kVA:10, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/b16FBDs/Petrol10k-VA-65-6.jpg</t>
+  </si>
+  <si>
+    <t>Pull-Start</t>
+  </si>
+  <si>
+    <t>Size-kVA:1.2, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>https://i.ibb.co/VTVCC5V/Petrol1-2k-VA-R5-1k.png</t>
+  </si>
+  <si>
+    <t>ImageUrl</t>
+  </si>
+  <si>
+    <t>MaxLi</t>
+  </si>
+  <si>
+    <t>Voltage-V:12, Energy-kWh:1.2</t>
+  </si>
+  <si>
+    <t>Voltage-V:12, Energy-kWh:1.5</t>
+  </si>
+  <si>
+    <t>Fusion</t>
+  </si>
+  <si>
+    <t>Forbatt</t>
+  </si>
+  <si>
+    <t>Lead Acid</t>
+  </si>
+  <si>
+    <t>Voltage-V:12, Energy-kWh:1.2, Capacity-Ah:100</t>
+  </si>
+  <si>
+    <t>Deltec</t>
+  </si>
+  <si>
+    <t>Lead Calcium</t>
+  </si>
+  <si>
+    <t>Voltage-V:12, Energy-kWh:1.2, Capacity-Ah:105</t>
+  </si>
+  <si>
+    <t>Pylon</t>
+  </si>
+  <si>
+    <t>Voltage-V:48, Energy-kWh:3.5, DischargeVoltage-V:53.5, ChargeVoltage-V:53.5</t>
+  </si>
+  <si>
+    <t>RCT</t>
+  </si>
+  <si>
+    <t>Voltage-V:12, Energy-kWh:2.4, Capacity-Ah:200</t>
+  </si>
+  <si>
+    <t>Voltage-V:25.6, Energy-kWh:5.12, RechargeVoltage-V:27.6, Capacity-Ah:200</t>
+  </si>
+  <si>
+    <t>Cable</t>
+  </si>
+  <si>
+    <t>Geewiz</t>
+  </si>
+  <si>
+    <t>SingleCore-DC</t>
+  </si>
+  <si>
+    <t>Size-mm2:35, Length-m:1</t>
+  </si>
+  <si>
+    <t>Size-mm2:50, Length-m:1</t>
+  </si>
+  <si>
+    <t>Rack</t>
+  </si>
+  <si>
+    <t>Renusol</t>
+  </si>
+  <si>
+    <t>Mounting Rail</t>
+  </si>
+  <si>
+    <t>Length-m:2.1</t>
+  </si>
+  <si>
+    <t>SizeGroup:1,TypeGroup:1, Brand:1, PackageGroup:1</t>
+  </si>
+  <si>
+    <t>Length-m:4.2</t>
+  </si>
+  <si>
     <t>Talon</t>
   </si>
   <si>
     <t>Electric-Start</t>
   </si>
   <si>
+    <t>Size-kVA:6, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
+    <t>Size-kVA:4.5, EngineSize-Stroke: 4</t>
+  </si>
+  <si>
     <t>Size-kVA:6.4, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>Size-kVA:6, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>Inverter</t>
-  </si>
-  <si>
-    <t>Inverters</t>
-  </si>
-  <si>
-    <t>Rentech-Axpert</t>
-  </si>
-  <si>
-    <t>Stand-alone</t>
-  </si>
-  <si>
-    <t>Size-kVA:5.6, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5.6, BatVoltage-V:48</t>
-  </si>
-  <si>
-    <t>SizeGroup:5,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/FK0ty82/Tentech5-6k-VA-R17-4.png</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/rG3Z1KZ/Des-Rentech5-6k-VA-R17-4.png</t>
-  </si>
-  <si>
-    <t>Size-kVA:5.5, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Size-kVA:5,InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5, BatVoltage-V:48, MPPTCurrent-A:80</t>
-  </si>
-  <si>
-    <t>SizeGroup:6,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/Y0KkM3P/RCT-Axpert5k-VA-R15-7k.png</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/BGWST2R/Des-Rentech-Axpert5k-VA-R15-7.png</t>
-  </si>
-  <si>
-    <t>Mecer</t>
-  </si>
-  <si>
-    <t>Size-kVA:5, Voltage-V:48, Power-kW:4</t>
-  </si>
-  <si>
-    <t>SizeGroup:3,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/31W0tKZ/Mecer5k-VA-R12-8k.png</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/WHbWBfr/Des-Mecer5k-VA-R12-8.png</t>
-  </si>
-  <si>
-    <t>TheCoolGuys</t>
-  </si>
-  <si>
-    <t>Size-kVA:5, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:5, BatVoltage-V:48, MPPTVoltage-VDC:115</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/cNq40GD/TCG5k-VA-R16-1k.png</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/SwJ5vSF/Des-TCG5k-VA-R16-1.png</t>
-  </si>
-  <si>
-    <t>Size-kVA:4.5, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>Size-kVA:3.5, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>RCT-AXPERT</t>
-  </si>
-  <si>
-    <t>Size-kVA:3, Voltage-V:48, Power-kW:3, MPPTVoltage-V:430</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/n1CmNTS/RCT-Axpert3k-VA-R10-4k.png</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/wrF2yST/Spec-ORDes-RCT-AXPERT3k-VA-R10-4.png</t>
-  </si>
-  <si>
-    <t>Size-kVA:3, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:2.4, BatVoltage-V:24, MPPTVoltage-VDC:100</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/t25SQL4/TCG3kva-R8-6-K.png</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/zPN6ykP/Des-TCG3k-VA-R8-6.png</t>
-  </si>
-  <si>
-    <t>Size-kVA:3, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>Rentech-Jagular</t>
-  </si>
-  <si>
-    <t>Size-kVA:2.4, InputVoltage-AC:230, OutputVoltage-AC:230, Power-kW:1.4, RecLABatVoltage-V:12</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/6r0kNwc/Rentech-Jag2-4k-VA-R4-4k.png</t>
-  </si>
-  <si>
-    <t>https://i.ibb.co/MC08H1B/Des-Rentec-Jag2-4k-VA-R4-4k.png</t>
-  </si>
-  <si>
-    <t>Size-kVA:10, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>Pull-Start</t>
-  </si>
-  <si>
-    <t>Size-kVA:1.2, EngineSize-Stroke: 4</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ImageUrl</t>
-  </si>
-  <si>
-    <t>MaxLi</t>
-  </si>
-  <si>
-    <t>Voltage-V:12, Energy-kWh:1.2</t>
-  </si>
-  <si>
-    <t>Voltage-V:12, Energy-kWh:1.5</t>
-  </si>
-  <si>
-    <t>Fusion</t>
-  </si>
-  <si>
-    <t>Forbatt</t>
-  </si>
-  <si>
-    <t>Lead Acid</t>
-  </si>
-  <si>
-    <t>Voltage-V:12, Energy-kWh:1.2, Capacity-Ah:100</t>
-  </si>
-  <si>
-    <t>Deltec</t>
-  </si>
-  <si>
-    <t>Lead Calcium</t>
-  </si>
-  <si>
-    <t>Voltage-V:12, Energy-kWh:1.2, Capacity-Ah:105</t>
-  </si>
-  <si>
-    <t>Pylon</t>
-  </si>
-  <si>
-    <t>Voltage-V:48, Energy-kWh:3.5, DischargeVoltage-V:53.5, ChargeVoltage-V:53.5</t>
-  </si>
-  <si>
-    <t>RCT</t>
-  </si>
-  <si>
-    <t>Voltage-V:12, Energy-kWh:2.4, Capacity-Ah:200</t>
-  </si>
-  <si>
-    <t>Voltage-V:25.6, Energy-kWh:5.12, RechargeVoltage-V:27.6, Capacity-Ah:200</t>
-  </si>
-  <si>
-    <t>Cable</t>
-  </si>
-  <si>
-    <t>Geewiz</t>
-  </si>
-  <si>
-    <t>SingleCore-DC</t>
-  </si>
-  <si>
-    <t>Size-mm2:35, Length-m:1</t>
-  </si>
-  <si>
-    <t>Size-mm2:50, Length-m:1</t>
-  </si>
-  <si>
-    <t>Rack</t>
-  </si>
-  <si>
-    <t>Renusol</t>
-  </si>
-  <si>
-    <t>Mounting Rail</t>
-  </si>
-  <si>
-    <t>Length-m:2.1</t>
-  </si>
-  <si>
-    <t>SizeGroup:1,TypeGroup:1, Brand:1, PackageGroup:1</t>
-  </si>
-  <si>
-    <t>Length-m:4.2</t>
   </si>
   <si>
     <t>Size-kVA:1.5, Voltage-V:12, Power-kW:1.2</t>
@@ -1045,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}">
-  <dimension ref="A1:M98"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1476,22 +1494,25 @@
       <c r="G14" t="s">
         <v>14</v>
       </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="15" thickBot="1">
       <c r="A15" t="s">
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
         <v>65</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15" s="13">
         <f>RBCPriceGenerator!B30</f>
@@ -1500,37 +1521,46 @@
       <c r="G15" t="s">
         <v>14</v>
       </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="13">
-        <f>RBCPriceGenerator!B31</f>
-        <v>32996.949999999997</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" ht="15" thickBot="1">
+      <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="9">
+        <f>RBCPriceGenerator!B51</f>
+        <v>17480</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15" thickBot="1">
       <c r="A17" t="s">
         <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C17" t="s">
         <v>64</v>
@@ -1539,183 +1569,194 @@
         <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F17" s="13">
-        <f>RBCPriceGenerator!B33</f>
-        <v>41400</v>
+        <f>RBCPriceGenerator!B25</f>
+        <v>13799.999999999998</v>
       </c>
       <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="H17"/>
+      <c r="H17" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15" thickBot="1">
-      <c r="A18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="A18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F18" s="13">
-        <f>RBCPriceGenerator!B29</f>
-        <v>27706.949999999997</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15" thickBot="1">
-      <c r="A19" s="8" t="s">
+      <c r="C18" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F19" s="9">
-        <f>RBCPriceGenerator!B51</f>
-        <v>17480</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="I19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15" thickBot="1">
-      <c r="A20" t="s">
-        <v>62</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D18" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="13">
-        <f>RBCPriceGenerator!B25</f>
-        <v>13799.999999999998</v>
-      </c>
-      <c r="G20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15" thickBot="1">
-      <c r="A21" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E21" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="F18" s="9">
         <f>RBCPriceGenerator!B50</f>
         <v>15746.949999999999</v>
       </c>
-      <c r="G21" s="8" t="s">
+      <c r="G18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="I18" t="s">
         <v>86</v>
       </c>
-      <c r="I21" t="s">
+    </row>
+    <row r="19" spans="1:9" ht="15" thickBot="1">
+      <c r="A19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15" thickBot="1">
-      <c r="A22" t="s">
-        <v>74</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D19" t="s">
         <v>75</v>
       </c>
-      <c r="C22" t="s">
+      <c r="E19" t="s">
         <v>88</v>
       </c>
-      <c r="D22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="13">
+      <c r="F19" s="13">
         <f>RBCPriceGenerator!B4</f>
         <v>12822.499999999998</v>
       </c>
-      <c r="G22" s="5" t="s">
+      <c r="G19" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="I19" t="s">
         <v>91</v>
       </c>
-      <c r="I22" t="s">
+    </row>
+    <row r="20" spans="1:9" ht="15" thickBot="1">
+      <c r="A20" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15" thickBot="1">
-      <c r="A23" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="6" t="s">
+      <c r="D20" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="7">
+      <c r="F20" s="7">
         <f>RBCPriceGenerator!B42</f>
         <v>16099.999999999998</v>
       </c>
+      <c r="G20" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="I20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15" thickBot="1">
+      <c r="A21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="13">
+        <f>RBCPriceGenerator!B24</f>
+        <v>8049.9999999999991</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="4">
+        <f>RBCPriceGenerator!B34</f>
+        <v>10471.9</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="5" customFormat="1" ht="15" thickBot="1">
+      <c r="A23" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="7">
+        <f>RBCPriceGenerator!B41</f>
+        <v>8625</v>
+      </c>
       <c r="G23" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I23" t="s">
-        <v>96</v>
+        <v>103</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15" thickBot="1">
@@ -1723,210 +1764,123 @@
         <v>62</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F24" s="13">
-        <f>RBCPriceGenerator!B32</f>
-        <v>34500</v>
+        <f>RBCPriceGenerator!B28</f>
+        <v>17250</v>
       </c>
       <c r="G24" t="s">
         <v>14</v>
       </c>
+      <c r="H24" s="16" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="15" thickBot="1">
-      <c r="A25" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D25" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" s="13">
-        <f>RBCPriceGenerator!B24</f>
-        <v>8049.9999999999991</v>
-      </c>
-      <c r="G25" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="15" thickBot="1">
-      <c r="A26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B26" s="3" t="s">
+      <c r="A25" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F26" s="4">
-        <f>RBCPriceGenerator!B34</f>
-        <v>10471.9</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="I26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="5" customFormat="1" ht="15" thickBot="1">
-      <c r="A27" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="F27" s="7">
-        <f>RBCPriceGenerator!B41</f>
-        <v>8625</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="15" thickBot="1">
-      <c r="A28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E28" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="13">
-        <f>RBCPriceGenerator!B28</f>
-        <v>17250</v>
-      </c>
-      <c r="G28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="15" thickBot="1">
-      <c r="A29" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="E25" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F25" s="9">
         <f>RBCPriceGenerator!B48</f>
         <v>4401.0499999999993</v>
       </c>
-      <c r="G29" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H29" s="8" t="s">
+      <c r="G25" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I25" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15" thickBot="1">
-      <c r="A30" t="s">
+    <row r="26" spans="1:9" ht="15" thickBot="1">
+      <c r="A26" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C26" t="s">
         <v>64</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D26" t="s">
         <v>65</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E26" t="s">
         <v>111</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F26" s="13">
         <f>RBCPriceGenerator!B27</f>
-        <v>24149.999999999996</v>
-      </c>
-      <c r="G30" t="s">
+        <v>65686.849999999991</v>
+      </c>
+      <c r="G26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" ht="15" thickBot="1">
-      <c r="A31" t="s">
+      <c r="H26" s="16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15" thickBot="1">
+      <c r="A27" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C27" t="s">
         <v>64</v>
       </c>
-      <c r="D31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D27" t="s">
         <v>113</v>
       </c>
-      <c r="F31" s="13">
+      <c r="E27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="13">
         <f>RBCPriceGenerator!B23</f>
         <v>5175</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G27" t="s">
         <v>14</v>
       </c>
+      <c r="H27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="F30" s="15"/>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="F31" s="15"/>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="6:6">
+      <c r="F33" s="15"/>
     </row>
     <row r="34" spans="6:6">
       <c r="F34" s="15"/>
@@ -1993,15 +1947,19 @@
     </row>
     <row r="55" spans="6:13">
       <c r="F55" s="15"/>
+      <c r="M55" s="15"/>
     </row>
     <row r="56" spans="6:13">
       <c r="F56" s="15"/>
+      <c r="M56" s="15"/>
     </row>
     <row r="57" spans="6:13">
       <c r="F57" s="15"/>
+      <c r="M57" s="15"/>
     </row>
     <row r="58" spans="6:13">
       <c r="F58" s="15"/>
+      <c r="M58" s="15"/>
     </row>
     <row r="59" spans="6:13">
       <c r="F59" s="15"/>
@@ -2020,15 +1978,12 @@
       <c r="M62" s="15"/>
     </row>
     <row r="63" spans="6:13">
-      <c r="F63" s="15"/>
       <c r="M63" s="15"/>
     </row>
     <row r="64" spans="6:13">
-      <c r="F64" s="15"/>
       <c r="M64" s="15"/>
     </row>
     <row r="65" spans="6:13">
-      <c r="F65" s="15"/>
       <c r="M65" s="15"/>
     </row>
     <row r="66" spans="6:13">
@@ -2036,28 +1991,27 @@
       <c r="M66" s="15"/>
     </row>
     <row r="67" spans="6:13">
+      <c r="F67" s="15"/>
       <c r="M67" s="15"/>
     </row>
     <row r="68" spans="6:13">
+      <c r="F68" s="15"/>
       <c r="M68" s="15"/>
     </row>
     <row r="69" spans="6:13">
+      <c r="F69" s="15"/>
       <c r="M69" s="15"/>
     </row>
     <row r="70" spans="6:13">
-      <c r="F70" s="15"/>
       <c r="M70" s="15"/>
     </row>
     <row r="71" spans="6:13">
-      <c r="F71" s="15"/>
       <c r="M71" s="15"/>
     </row>
     <row r="72" spans="6:13">
-      <c r="F72" s="15"/>
       <c r="M72" s="15"/>
     </row>
     <row r="73" spans="6:13">
-      <c r="F73" s="15"/>
       <c r="M73" s="15"/>
     </row>
     <row r="74" spans="6:13">
@@ -2102,34 +2056,22 @@
     <row r="87" spans="13:13">
       <c r="M87" s="15"/>
     </row>
-    <row r="88" spans="13:13">
-      <c r="M88" s="15"/>
-    </row>
-    <row r="89" spans="13:13">
-      <c r="M89" s="15"/>
-    </row>
-    <row r="90" spans="13:13">
-      <c r="M90" s="15"/>
-    </row>
     <row r="91" spans="13:13">
       <c r="M91" s="15"/>
     </row>
-    <row r="95" spans="13:13">
-      <c r="M95" s="15"/>
-    </row>
-    <row r="96" spans="13:13">
-      <c r="M96" s="15"/>
-    </row>
-    <row r="97" spans="13:13">
-      <c r="M97" s="15"/>
-    </row>
-    <row r="98" spans="13:13">
-      <c r="M98" s="15"/>
+    <row r="92" spans="13:13">
+      <c r="M92" s="15"/>
+    </row>
+    <row r="93" spans="13:13">
+      <c r="M93" s="15"/>
+    </row>
+    <row r="94" spans="13:13">
+      <c r="M94" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G31" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G31">
-    <sortCondition descending="1" ref="E14:E31"/>
+  <autoFilter ref="A1:G27" xr:uid="{01BCF050-2F09-42D0-9049-6BF8B00124F4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G27">
+    <sortCondition descending="1" ref="E14:E27"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2137,9 +2079,11 @@
     <hyperlink ref="I3" r:id="rId2" xr:uid="{52748133-60D7-4085-8A2B-F47A5084AE82}"/>
     <hyperlink ref="I4" r:id="rId3" xr:uid="{C39F7D00-D3EC-4E80-B6DF-FF1AC8554BF2}"/>
     <hyperlink ref="I13" r:id="rId4" xr:uid="{51126B01-EF82-4D3A-A8AC-4C6EDBFD4FA4}"/>
-    <hyperlink ref="H19" r:id="rId5" xr:uid="{64525F2D-8BC7-48E6-883B-74C1E1705D7B}"/>
+    <hyperlink ref="H16" r:id="rId5" xr:uid="{64525F2D-8BC7-48E6-883B-74C1E1705D7B}"/>
     <hyperlink ref="H4" r:id="rId6" xr:uid="{B6E103EA-A26F-4CAE-9611-5E071D398B4B}"/>
     <hyperlink ref="I11" r:id="rId7" xr:uid="{DF7F894D-0311-4E90-BE0A-95CB041C6CAB}"/>
+    <hyperlink ref="H26" r:id="rId8" xr:uid="{7809E0D1-332D-4695-8F3F-ECD6F949564D}"/>
+    <hyperlink ref="H24" r:id="rId9" xr:uid="{D3705807-FC18-484E-B2E9-5B159925D2B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2187,10 +2131,10 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" hidden="1" thickBot="1">
@@ -2201,13 +2145,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F2" s="13">
         <f>RBCPriceGenerator!B5</f>
@@ -2231,7 +2175,7 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="13">
         <f>RBCPriceGenerator!B6</f>
@@ -2321,7 +2265,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -2345,13 +2289,13 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F8" s="13">
         <f>RBCPriceGenerator!B11</f>
@@ -2369,13 +2313,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" s="13">
         <f>RBCPriceGenerator!B12</f>
@@ -2417,13 +2361,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F11" s="4">
         <f>RBCPriceGenerator!B38</f>
@@ -2441,13 +2385,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F12" s="4">
         <f>RBCPriceGenerator!B39</f>
@@ -2465,13 +2409,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F13" s="4">
         <f>RBCPriceGenerator!B40</f>
@@ -2543,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F16" s="9">
         <f>RBCPriceGenerator!B54</f>
@@ -2564,10 +2508,10 @@
         <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="13">
         <f>RBCPriceGenerator!B23</f>
@@ -2591,7 +2535,7 @@
         <v>65</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F18" s="13">
         <f>RBCPriceGenerator!B24</f>
@@ -2603,19 +2547,19 @@
     </row>
     <row r="19" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C19" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="13">
         <f>RBCPriceGenerator!B19</f>
@@ -2627,19 +2571,19 @@
     </row>
     <row r="20" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D20" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="13">
         <f>RBCPriceGenerator!B20</f>
@@ -2651,50 +2595,50 @@
     </row>
     <row r="21" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F21" s="13">
         <f>RBCPriceGenerator!B21</f>
         <v>362.25</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15" hidden="1" thickBot="1">
       <c r="A22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F22" s="13">
         <f>RBCPriceGenerator!B22</f>
         <v>675.05</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15" hidden="1" thickBot="1">
@@ -2711,7 +2655,7 @@
         <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F23" s="13">
         <f>RBCPriceGenerator!B25</f>
@@ -2763,7 +2707,7 @@
       </c>
       <c r="F25" s="13">
         <f>RBCPriceGenerator!B27</f>
-        <v>24149.999999999996</v>
+        <v>65686.849999999991</v>
       </c>
       <c r="G25" t="s">
         <v>14</v>
@@ -2774,16 +2718,16 @@
         <v>62</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F26" s="13">
         <f>RBCPriceGenerator!B28</f>
@@ -2798,16 +2742,16 @@
         <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>144</v>
       </c>
       <c r="E27" t="s">
-        <v>73</v>
+        <v>145</v>
       </c>
       <c r="F27" s="13">
         <f>RBCPriceGenerator!B29</f>
@@ -2822,16 +2766,16 @@
         <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D28" t="s">
         <v>65</v>
       </c>
       <c r="E28" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F28" s="13">
         <f>RBCPriceGenerator!B30</f>
@@ -2846,16 +2790,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C29" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" t="s">
         <v>70</v>
-      </c>
-      <c r="D29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E29" t="s">
-        <v>69</v>
       </c>
       <c r="F29" s="13">
         <f>RBCPriceGenerator!B31</f>
@@ -2870,7 +2814,7 @@
         <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" t="s">
         <v>64</v>
@@ -2879,7 +2823,7 @@
         <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>97</v>
+        <v>146</v>
       </c>
       <c r="F30" s="13">
         <f>RBCPriceGenerator!B32</f>
@@ -2894,7 +2838,7 @@
         <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
         <v>64</v>
@@ -2903,7 +2847,7 @@
         <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>147</v>
       </c>
       <c r="F31" s="13">
         <f>RBCPriceGenerator!B33</f>
@@ -2915,100 +2859,100 @@
     </row>
     <row r="32" spans="1:9" hidden="1">
       <c r="A32" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D32" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E32" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F32" s="13">
         <f>RBCPriceGenerator!B2</f>
         <v>4357.3499999999995</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I32" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="1:9" hidden="1">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>77</v>
-      </c>
       <c r="E33" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F33" s="13">
         <f>RBCPriceGenerator!B3</f>
         <v>6899.9999999999991</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I33" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="5" customFormat="1" hidden="1">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" t="s">
+      <c r="E34" t="s">
         <v>88</v>
-      </c>
-      <c r="D34" t="s">
-        <v>77</v>
-      </c>
-      <c r="E34" t="s">
-        <v>89</v>
       </c>
       <c r="F34" s="13">
         <f>RBCPriceGenerator!B4</f>
         <v>12822.499999999998</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I34" s="5" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:9" hidden="1">
       <c r="A35" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B35" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>100</v>
       </c>
       <c r="F35" s="4">
         <f>RBCPriceGenerator!B34</f>
@@ -3020,19 +2964,19 @@
     </row>
     <row r="36" spans="1:9" hidden="1">
       <c r="A36" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E36" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F36" s="4">
         <f>RBCPriceGenerator!B35</f>
@@ -3042,24 +2986,24 @@
         <v>31</v>
       </c>
       <c r="I36" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="1:9" hidden="1">
       <c r="A37" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="E37" s="3" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F37" s="4">
         <f>RBCPriceGenerator!B36</f>
@@ -3071,88 +3015,88 @@
     </row>
     <row r="38" spans="1:9" hidden="1">
       <c r="A38" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F38" s="7">
         <f>RBCPriceGenerator!B41</f>
         <v>8625</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:9" hidden="1">
       <c r="A39" s="6" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C39" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>94</v>
       </c>
       <c r="F39" s="7">
         <f>RBCPriceGenerator!B42</f>
         <v>16099.999999999998</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:9" hidden="1">
       <c r="A40" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="D40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="F40" s="9">
         <f>RBCPriceGenerator!B47</f>
         <v>4038.7999999999997</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:9" hidden="1">
       <c r="A41" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>107</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>108</v>
@@ -3162,24 +3106,24 @@
         <v>4401.0499999999993</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:9" hidden="1">
       <c r="A42" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B42" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="D42" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F42" s="9">
         <f>RBCPriceGenerator!B49</f>
@@ -3191,50 +3135,50 @@
     </row>
     <row r="43" spans="1:9" hidden="1">
       <c r="A43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="D43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="F43" s="9">
         <f>RBCPriceGenerator!B50</f>
         <v>15746.949999999999</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:9" hidden="1">
       <c r="A44" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>78</v>
       </c>
       <c r="F44" s="9">
         <f>RBCPriceGenerator!B51</f>
         <v>17480</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="5" customFormat="1" ht="15" hidden="1" thickBot="1">
@@ -3386,23 +3330,23 @@
         <v>27</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F51" s="2">
         <f>RBCPriceGenerator!B67</f>
         <v>35255.549999999996</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="15" hidden="1" thickBot="1">
@@ -3410,23 +3354,23 @@
         <v>27</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="F52" s="2">
         <f>RBCPriceGenerator!B68</f>
         <v>44369.299999999996</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="15" hidden="1" thickBot="1">
@@ -3434,28 +3378,28 @@
         <v>27</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="F53" s="2">
         <f>RBCPriceGenerator!B69</f>
         <v>45158.2</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="15" hidden="1" thickBot="1">
       <c r="C54" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F54" s="11">
         <f>RBCPriceGenerator!B74</f>
@@ -3506,7 +3450,7 @@
         <v>10471.9</v>
       </c>
       <c r="G60" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3535,7 +3479,7 @@
         <v>13549.3</v>
       </c>
       <c r="G61" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3564,7 +3508,7 @@
         <v>15525</v>
       </c>
       <c r="G62" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3602,7 +3546,7 @@
         <v>10471.9</v>
       </c>
       <c r="G65" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3631,7 +3575,7 @@
         <v>27098.6</v>
       </c>
       <c r="G66" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3660,7 +3604,7 @@
         <v>20700</v>
       </c>
       <c r="G67" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3698,7 +3642,7 @@
         <v>15234.05</v>
       </c>
       <c r="G70" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3727,7 +3671,7 @@
         <v>26444.249999999996</v>
       </c>
       <c r="G71" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3756,7 +3700,7 @@
         <v>29071.999999999996</v>
       </c>
       <c r="G72" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3797,7 +3741,7 @@
         <v>15234.05</v>
       </c>
       <c r="G76" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3826,7 +3770,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G77" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3855,7 +3799,7 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G78" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3896,7 +3840,7 @@
         <v>41260.85</v>
       </c>
       <c r="G82" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -3925,7 +3869,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G83" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -3954,7 +3898,7 @@
         <v>36339.999999999993</v>
       </c>
       <c r="G84" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -3987,7 +3931,7 @@
         <v>0</v>
       </c>
       <c r="N85" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4017,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="N86" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4047,7 +3991,7 @@
         <v>0</v>
       </c>
       <c r="N87" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4083,7 +4027,7 @@
         <v>41260.85</v>
       </c>
       <c r="G89" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="M89" s="15"/>
     </row>
@@ -4113,7 +4057,7 @@
         <v>52888.499999999993</v>
       </c>
       <c r="G90" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="H90">
         <f t="shared" ref="H90:I90" si="23">H$35</f>
@@ -4140,7 +4084,7 @@
         <v>0</v>
       </c>
       <c r="N90" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4169,7 +4113,7 @@
         <v>43607.999999999993</v>
       </c>
       <c r="G91" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="H91">
         <f>H$4</f>
@@ -4196,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="N91" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4229,7 +4173,7 @@
         <v>0</v>
       </c>
       <c r="N92" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4267,7 +4211,7 @@
         <v>0</v>
       </c>
       <c r="N95" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4296,7 +4240,7 @@
         <v>41260.85</v>
       </c>
       <c r="G96" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H96">
         <f t="shared" ref="H96:K96" si="30">H$7</f>
@@ -4323,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="N96" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4352,7 +4296,7 @@
         <v>79332.749999999985</v>
       </c>
       <c r="G97" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="H97">
         <f t="shared" ref="H97:K97" si="32">H$50</f>
@@ -4379,7 +4323,7 @@
         <v>0</v>
       </c>
       <c r="N97" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4408,7 +4352,7 @@
         <v>50875.999999999993</v>
       </c>
       <c r="G98" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="M98" s="15">
         <f>SUBTOTAL(9,M95:M97)</f>
@@ -4451,7 +4395,7 @@
         <v>0</v>
       </c>
       <c r="N101" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -4480,7 +4424,7 @@
         <v>0</v>
       </c>
       <c r="N102" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -4509,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="N103" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -4550,7 +4494,7 @@
         <v>0</v>
       </c>
       <c r="N107" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -4579,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="N108" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -4608,7 +4552,7 @@
         <v>0</v>
       </c>
       <c r="N109" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -4652,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="N114" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="8:14">
@@ -4681,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="N115" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="116" spans="8:14">
@@ -4710,7 +4654,7 @@
         <v>0</v>
       </c>
       <c r="N116" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="117" spans="8:14">
@@ -4745,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="N121" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="8:14">
@@ -4774,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="N122" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="123" spans="8:14">
@@ -4803,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="N123" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="124" spans="8:14">
@@ -4836,8 +4780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02EAAD8-D566-4024-B845-4CB318AE8481}">
   <dimension ref="A1:B73"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -5103,12 +5047,12 @@
     </row>
     <row r="27" spans="1:2" ht="15" thickBot="1">
       <c r="A27" s="14">
-        <f>21000</f>
-        <v>21000</v>
+        <f>57119</f>
+        <v>57119</v>
       </c>
       <c r="B27" s="12">
         <f t="shared" si="0"/>
-        <v>24149.999999999996</v>
+        <v>65686.849999999991</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -5573,6 +5517,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100583804D756D08E4CA3423200232226B2" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b3af61a159263512a7f1ce494a3d6b52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="38594f89-c314-49a7-8895-5d17cbb3f834" xmlns:ns3="c062e488-6187-499b-9180-094274b6916e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e65e6323747ef5a712f1b4f0f665253a" ns2:_="" ns3:_="">
     <xsd:import namespace="38594f89-c314-49a7-8895-5d17cbb3f834"/>
@@ -5815,19 +5768,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4D44B-BA28-4ECE-9D28-DB5214D251D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FDEAF2-72F6-4DE3-BA2B-74A9F9809E88}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5FDEAF2-72F6-4DE3-BA2B-74A9F9809E88}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFB4D44B-BA28-4ECE-9D28-DB5214D251D2}"/>
 </file>